--- a/news_data/2016_11.xlsx
+++ b/news_data/2016_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,58 +22,151 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t>제주도, 오라관광단지 보완 요구</t>
-  </si>
-  <si>
-    <t>"11월 제주도, 한라산 단풍 관광이 포인트"</t>
-  </si>
-  <si>
-    <t>제주도 '관광객 1400만명' 돌파</t>
-  </si>
-  <si>
-    <t>'제주도 관광' 입국해 국내 불법 체류한 중국인 징역형 선고</t>
-  </si>
-  <si>
-    <t>관광객 증가 제주도, 풀빌라형 타운하우스 인기 이유는?</t>
-  </si>
-  <si>
-    <t>제주도 관광을 핑계로…국내 불법이동 중국인 '징역형'</t>
-  </si>
-  <si>
-    <t>제주도 임대수익차 전국 최고... 중문 등 관광지 수익형 부동산 관심↑</t>
-  </si>
-  <si>
-    <t>에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호!</t>
-  </si>
-  <si>
-    <t>JCC, "오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것"</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시</t>
-  </si>
-  <si>
-    <t>제주도, 오라관광단지 보완 요구 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 보완 요구 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 오라관광단지 보완 요구 기자명 조문호 기자 입력 2016.11.04 10:48 수정 2016.11.04 10:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 환경영향평가 심의결과 3가지파장 의식 ‘엄격한 잣대’ 강조 [제주도민일보DB].지역 정치권으로까지 파장이 번진 제주오라관광단지 개발사업에 대해 제주도가 환경영향평가서 보완 요구를 지시했다.지하수 사용 최소화, 하수 및 폐기물 전량 자체 처리, 휴양콘도 재산정 및 조정 등이다.제주도는 이러한 보완 내용을 4일 통보했다고 이날 밝혔다.이는 환경영향평가 심의위원회가 심의결과를 제출한 내용에 근거한 것이라고 도는 설명했다.도는 최근 전도 차원으로 관련 논란이 번지고 있는 것을 의식한 듯 “어떠한 결론도 미리 전제함이 없이 법과 원칙에 입각하여 엄격한 잣대로 도민들께서 우려하는 문제들을 감안해 검토하고 있다”고 강조했다.심의위는 지난달 14일 회의에서 ▷중산간의 지하수 보전과 오염방지를 위해서, 지하수 사용량을 최소화하고 상수도, 중수도 등 다른 용수 사용 ▷기존 공공 하수처리장의 수용능력이 포화상태임을 감안해 하수 및 폐기물의 전량 자체처리 ▷사업부지 내 휴양콘도시설의 적정 수요량 재산정 및 조정 등의 의견을 제시한 바 있다.도는 이에 더해 오라관광단지 개발사업 승인과 관련해 투자 자본의 적격성 및 충실한 투자계획의 이행, 관광단지 사업 내용이 지역경제 및 제주관광에 미치는 영향을 비롯해 교통‧경관영향 등 종합적인 것을 엄밀히 검토해 제주미래비전에 부합하기 위한 심의를 진행해 나갈 계획임을 재강조했다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>"11월 제주도, 한라산 단풍 관광이 포인트" &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-04 10:04 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 진선규, 알고보면 부드러운 남자 [포토] 김신록, 신스틸러 여신 'APAN' 참석 [포토] 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 "11월 제주도, 한라산 단풍 관광이 포인트" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 "11월 제주도, 한라산 단풍 관광이 포인트" 기자명 문화뉴스 이우람 입력 2016.11.07 18:00 수정 2016.11.07 22:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스] 천혜의 자연환경과 더불어 풍부한 수산물로 가득한 곳하면 가장 먼저 떠올리게 되는 여행지는 바로 '제주도'다. 실제로 연예인들과 방송 관계자들로부터도 큰 사랑을 받는 촬영지이기도 하다. 최근에는 걸그룹 다이아가 팬들과 떠나는 추억 여행지로 제주도를 선택했으며, 걸그룹 구구단도 데뷔 첫 단독 리얼리티 프로그램인 MBC뮤직의 '구구단 프로젝트'의 첫 방송 또한 제주도가 배경인 것으로 알려졌다. 또한 많은 시청자들의 사랑을 받아온 '슈퍼맨이 돌아왔다'에서 이휘재 삼부자 역시 SNS를 통해 갈 곳을 추천 받아 떠나는 자유여행지로 제주도를 찾은 것으로 보도된 바 있다. 최근 시즌 15로 돌아온 tvN '막돼먹은 영애씨' 또한 제주도를 배경으로 한 주인공의 활약상을 그렸다. 이처럼 연예인을 비롯해 수많은 관광객의 발걸음이 제주도로 향하는 이유는 무엇일까. 전문가들은 "푸른 바다와 한라산이 한 곳에 있는 제주도는 수려한 경관을 감상하고, 즐길거리가 풍부한 중문관광단지 등이 있는 것이 인기 요인으로 꼽는다"고 전했다. 이어서 "특히 한라산의 단풍이 절정에 이르러 산 전체의 80%가 물들었을 만큼 가을제주도는 아주 아름답다"면서 "11월을 맞아 제주도를 방문할 여행객이라면 반드시 한라산 관광을 하기 좋도록 근방에 위치한 숙소를 선택할 것을 권한다"고 말했다. 일례로 제주도펜션 하바다통나무집팬션의 경우, 한라산 영실코스 입구가 펜션에서 지척에 있을 뿐아니라 최고의 관광메카 중문단지가 자동차로 10분 거리인 중문펜션으로 각종 관광을 하기에 적합하다. 별도의 요금을 내지 않아도 전 객실에서 오션뷰를 감상할 수 있어 관광객에게 인기 있는 바닷가펜션으로, 탁 트인 베란다와 청록을 즐길 수 있는 잔디 정원도 마련돼 있다. 무엇보다 독채복층 펜션이기 때문에 다른 관광객의 방해 없이 오붓한 시간을 보낼 수 있으며 와이파이, 세콤, 세스코 등 편의 및 안전시설도 갖췄다. 전기압력밥솥과 전자렌지를 비롯한 식사도구 및 취사시설이 구비돼 있어 펜션 앞바다에서 직접 잡은 보말, 오징어, 벵에돔 등으로 특별 저녁 요리를 만들 수도 있다. 개별 바베큐 그릴도 제공된다. 서귀포펜션 하바다통나무집팬션 서언아 대표는 "쾌적한 환경에서 가족, 친구, 커플과 여행을 즐기고 싶다면 자연과 잘 어우러지는 친환경 재료로 지은 운치 있는 제주도펜션을 알아보는 것도 도움 될 것이다"면서 "실제로 목재 등 친환경 재료로만 제주도펜션을 지어 실내에서도 솔 향기, 피톤치드를 느낄 수 있고 나무가 온습도를 알아서 조절해 사계절 내내 보송보송한 실내에서 지낼 수 있어 고객 만족도가 높다"고 덧붙였다. 문화뉴스 이우람 기자 pd@mhns.co.kr ▲ 하바다통나무집 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 [문화리뷰] 우스꽝스러운 죽음, 비장한 삶…아이러니가 주는 명쾌한 해답[문화리뷰] '유영국, 절대와 자유 展'…자유를 통해 절대를 이룬 모더니스트[문화리뷰] 무대와 취지 모두 꽉 찬 알짜배기 공연, 전기뱀장어와 함께하는 나눔콘서트 '희망발전소'[문화리뷰] '畵畵미인도취 展', 미인은 없다[문화리뷰] 눈먼 희망대신, 또렷한 의문…"왜 이렇게 살아야되는지 생각해볼거야" 문화뉴스 이우람의 다른 기사 보기 문화뉴스 이우람 pd@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 ‘관광객 1400만명’ 돌파 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 ‘관광객 1400만명’ 돌파 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도 ‘관광객 1400만명’ 돌파 기자명 조문호 기자 입력 2016.11.15 09:01 수정 2016.11.15 09:09 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 13일 기준 1401만여명 집계1500만명까지도 가능 예측 [제주도민일보DB].제주도를 찾은 관광객이 결국 1400만명을 돌파했다. 지금 추세로는 올해 내 1500만명까지 가능하다는 시각이다.14일 제주도관광협회 집계 결과 지난 13일까지 제주를 찾은 관광객은 1401만9517명으로, 지난해 같은 기간보다 17.4%가 늘었다.이미 지난해 누적 관광객 수(1366만4395명)는 이달초 넘어선 상태다.외국인 관광객은 같은날 기준으로 324만5499명으로 집계됐다. 작년보다 40% 가량 급증한 결과다. 지난해 메르스 사태로 주춤했던 것이 회복된 것으로 해석할 수 있는 부분이다.내국인 관광객도 961만8500명에서 1077만4018명으로 12% 늘었다. 관광업계에서는 최근 하루 3만명에서 5만명이 제주를 찾고 있어 1500만명 시대도 열 수 있을 것으로 보고 있다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. esper 2016-11-15 15:04:59 더보기 삭제하기 관광객 1400만 시대 . 사회 인프라는 엉망인데...관광객은 늘어가고...쓰레기 늘어나고...교통 혼잡도 늘어나고...내 월급만 안 늘어가고 답글쓰기 9 7 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>'제주도 관광' 입국해 국내 불법 체류한 중국인 징역형 선고-국민일보 시사 시사 &gt; 전체기사 '제주도 관광' 입국해 국내 불법 체류한 중국인 징역형 선고 입력 : 2016-11-04 09:13 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도 관광 명목으로 입국해 국내 다른 지역으로 불법 이동한 중국인들에게 법원이 징역형을 선고했다.서울중앙지법 형사12단독 박평수 판사는 제주특별자치도설치 및 국제자유도시 조성을 위한 특별법 위반 등의 혐의로 기소된 중국인 A씨(30)에게 징역 10개월에 집행유예 2년, B씨(26)에게 징역 8개월에 집행유예 2년을 선고했다고 4일 밝혔다.A씨는 2013년 11월 한 모바일 메신저에서 알게 된 중국인 브로커에게 제주도에 입국 후 국내 다른 지역으로 이동시켜 주는 대가로 4만5000위안(한화 약 900만원)을 지불하기로 했다. 다음해 4월 제주도에서 브로커를 통해 외국인등록증과 김포공항행 항공권을 받아 김포공항으로 들어왔다. 이후 국내에 머물며 2014년 5~8월까지 경기도 수원시 공공임대주택 건설현장 등에서 일용직으로 근무했다. B씨도 같은 수법으로 지난해 4월 관광 목적을 가장해 사증 없이 제주도에 입국한 후 부산항으로 들어와 수원의 건설 현장에서 일용직으로 일한 것으로 조사됐다.관광 등의 목적으로 제주도에 사증 없이 공항 또는 항만으로 입국한 외국인은 대한민국 안의 다른 지역으로 이동할 경우에는 법무부 장관으로부터 체류지역 확대 허가를 받아야 한다.박 판사는 “특별법의 제정 취지를 무시하고 출입국 질서를 해하는 범행”이라며 “죄질이 좋지 않고 불법체류 기간이 상당히 길다”고 지적했다.양민철 기자 listen@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 김건희 논문 증인들 줄줄이 국감 불출석…野 “국민무시” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 ‘김치용 배추’ 구글 번역기 돌리니 ‘Chinese cabbage’ 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건 전남에 전국 첫 저메탄 조사료 종합유통센터 설치</t>
-  </si>
-  <si>
-    <t>м ңмЈјлҸ„ кҙҖкҙ‘мқ„ н•‘кі„лЎңвҖҰкөӯлӮҙ л¶ҲлІ•мқҙлҸҷ мӨ‘көӯмқё 'м§•м—ӯнҳ•' - мӢңмӮ¬мҳӨлҠҳ(мӢңмӮ¬ON) × м „мІҙкё°мӮ¬ н’Җмқён„°л·° мӢңлҢҖмӮ°мұ… м „мІҙ мӢңлҢҖмӮ°мұ… ж°‘еұұлҗҳм§ҡкё° 6мӣ”н•ӯмҹҒ лҗҳм§ҡкё° лҜјм¶”нҳ‘лҗҳм§ҡкё° лүҙмҠӨ м „мІҙ м •м№ҳ кІҪм ң мӮ°м—… кұҙм„ӨВ·л¶ҖлҸҷмӮ° IT мң нҶө мӮ¬нҡҢ&amp;лқјмқҙн”„ л№„мЈјм–јлүҙмҠӨ м „мІҙ нҸ¬нҶ лүҙмҠӨ л§ҢнҸү м№ҙл“ңлүҙмҠӨ мқёнҸ¬к·ёлһҳн”Ҫ мӢңмӮ¬мҳӨлҠҳTV н•ңм»·мҳӨлҠҳ нҳ„мһҘлүҙмҠӨ м „мІҙ лӢЁл°•мқён„°л·° нҳ„мһҘм—җм„ң лҘҙнҸ¬ мӢңмҠ№кё° м·Ёмһ¬мқјкё° кё°нҡҚ м „мІҙ м»ӨлІ„мҠӨнҶ лҰ¬ нҠ№м§‘ мҳӨн”јлӢҲм–ё м „мІҙ мқён„°л·° м№јлҹј кё°мһҗмҲҳмІ© мқёл¬ј мқёмӮ¬/л¶Җкі ліҙлҸ„мһҗлЈҢ youtube twitter blog insta rss лЎңк·ёмқё нҡҢмӣҗк°Җмһ… лӘЁл°”мқјмӣ№ лүҙмҠӨ м •м№ҳ кІҪм ң мӮ°м—… кұҙм„ӨВ·л¶ҖлҸҷмӮ° IT мң нҶө мӮ¬нҡҢ&amp;лқјмқҙн”„ көӯм ң л№„мЈјм–јлүҙмҠӨ нҸ¬нҶ лүҙмҠӨ л§ҢнҸү м№ҙл“ңлүҙмҠӨ мқёнҸ¬к·ёлһҳн”Ҫ мӢңмӮ¬мҳӨлҠҳTV н•ңм»·мҳӨлҠҳ нҳ„мһҘлүҙмҠӨ лӢЁл°•мқён„°л·° нҳ„мһҘм—җм„ң лҘҙнҸ¬ мӢңмҠ№кё° м·Ёмһ¬мқјкё° кё°нҡҚ м»ӨлІ„мҠӨнҶ лҰ¬ нҠ№м§‘ мҳӨн”јлӢҲм–ё мқён„°л·° м№јлҹј кё°мһҗмҲҳмІ© мқёл¬ј мқёмӮ¬/л¶Җкі мӢңлҢҖмӮ°мұ… мӢңлҢҖмӮ°мұ… ж°‘еұұлҗҳм§ҡкё° 6мӣ”н•ӯмҹҒ лҗҳм§ҡкё° лҜјм¶”нҳ‘лҗҳм§ҡкё° 2022-10-04 09:44 (нҷ”) кё°мӮ¬кІҖмғү кІҖмғү мғҒм„ёкІҖмғү мқҙм „ лӢӨмқҢ м ңмЈјлҸ„ кҙҖкҙ‘мқ„ н•‘кі„лЎңвҖҰкөӯлӮҙ л¶ҲлІ•мқҙлҸҷ мӨ‘көӯмқё 'м§•м—ӯнҳ•' кё°мӮ¬кіөмң н•ҳкё° н”„лҰ°нҠё л©”мқјліҙлӮҙкё° кёҖм”ЁнӮӨмҡ°кё° к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ мҠӨнҒ¬лЎӨ мқҙлҸҷ мғҒнғңл°” HOME лүҙмҠӨ мӮ¬нҡҢ&amp;лқјмқҙн”„ м ңмЈјлҸ„ кҙҖкҙ‘мқ„ н•‘кі„лЎңвҖҰкөӯлӮҙ л¶ҲлІ•мқҙлҸҷ мӨ‘көӯмқё 'м§•м—ӯнҳ•' к№Җнҳ„м • кё°мһҗ мҠ№мқё 2016.11.04 10:46 лҢ“кёҖ 0 кё°мӮ¬кіөмң н•ҳкё° н”„лҰ°нҠё л©”мқјліҙлӮҙкё° кёҖм”ЁнӮӨмҡ°кё° к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ к°ҖлӮҳлӢӨлқјл§Ҳл°”мӮ¬ мқҙ кё°мӮ¬лҘј кіөмң н•©лӢҲлӢӨ нҺҳмқҙмҠӨл¶Ғ нҠёмң„н„° м№ҙм№ҙмҳӨмҠӨнҶ лҰ¬ м№ҙм№ҙмҳӨнҶЎ кө¬кёҖ+ л„ӨмқҙлІ„л°ҙл“ң л„ӨмқҙлІ„лё”лЎңк·ё л„ӨмқҙлІ„нҸҙлқј н•Җн„°л ҲмҠӨнҠё URLліөмӮ¬ × (мӢңмӮ¬мҳӨлҠҳ, мӢңмӮ¬ON, мӢңмӮ¬мҳЁ= к№Җнҳ„м • кё°мһҗ)	м ңмЈјлҸ„м—җ кҙҖкҙ‘н•ҳлҹ¬ мҳЁ кІғмІҳлҹј мҶҚмқё л’Ө көӯлӮҙ лӢӨлҘё м§Җм—ӯмңјлЎң л¶ҲлІ• мқҙлҸҷн•ң нҳҗмқҳлЎң кё°мҶҢлҗң мӨ‘көӯмқёл“Өм—җкІҢ м§•м—ӯнҳ•мқҙ м„ кі лҗҗлӢӨ.	м„ңмҡёмӨ‘м•ҷм§ҖлІ• нҳ•мӮ¬12лӢЁлҸ… л°•нҸүмҲҳ нҢҗмӮ¬лҠ” 4мқј м ңмЈјнҠ№лі„мһҗм№ҳлҸ„м„Өм№ҳ л°Ҹ көӯм ңмһҗмң лҸ„мӢң мЎ°м„ұмқ„ мң„н•ң нҠ№лі„лІ• мң„л°ҳ л“ұмқҳ нҳҗмқҳлЎң кё°мҶҢлҗң мӨ‘көӯмқё A(30)м”Ём—җкІҢ м§•м—ӯ 10к°ңмӣ”м—җ м§‘н–үмң мҳҲ 2л…„, B(26)м”Ём—җкІҢ м§•м—ӯ 8к°ңмӣ”м—җ м§‘н–үмң мҳҲ 2л…„мқ„ м„ кі н–ҲлӢӨкі  л°қнҳ”лӢӨ.	нҳ„н–ү лІ•м—җ л”°лҘҙл©ҙ м ңмЈјлҸ„лЎң мһ…көӯ н•ң мҷёкөӯмқёмқҙлқјл©ҙ лӢӨлҘё м§Җм—ӯ мқҙлҸҷ мӢң лІ•л¬ҙл¶Җ мһҘкҙҖмқҳ мІҙлҘҳм§Җм—ӯ нҷ•лҢҖ н—Ҳк°ҖлҘј л°ӣм•„м•ј н•ңлӢӨ. 	л°• нҢҗмӮ¬лҠ” "нҠ№лі„лІ•мқҳ м ңм • м·Ём§ҖлҘј л¬ҙмӢңн•ҳкі  м¶ңмһ…көӯ м§Ҳм„ңлҘј н•ҙн•ҳлҠ” лІ”н–үмқҙм§Җл§Ң көӯлӮҙм—җ м•„л¬ҙлҹ° м „кіјк°Җ м—Ҷкі  лІ”н–үмқ„ лӘЁл‘җ мқём •н•ҳкі  л°ҳм„ұн•ҳкі  мһҲлӢӨ"л©ҙм„ң "нҠ№лі„лІ• мң„л°ҳ лІ”н–үмқ„ мЈјлҸ„н•ң мЈјлІ”мқҖ мһ…көӯм•Ңм„  лёҢлЎңм»Өл“Өмқҙл©°, к·ёл“Өм—җкІҢ лҸҲмқ„ мЈјкі  мһ…көӯн•ң кІғмңјлЎң к°ҖлӢҙ м •лҸ„к°Җ мғҒлҢҖм ҒмңјлЎң к°ҖліҚлӢӨ"кі  м–‘нҳ• мқҙмң лҘј л°қнҳ”лӢӨ.	Aм”ЁлҠ” мӨ‘көӯмқё лёҢлЎңм»Өм—җкІҢ м ңмЈјлҸ„м—җ мһ…көӯ нӣ„ көӯлӮҙ лӢӨлҘё м§Җм—ӯмңјлЎң мқҙлҸҷмӢңмјң мЈјлҠ” лҢҖк°ҖлЎң 4л§Ң5000мң„м•Ҳ(н•ңнҷ” м•Ҫ 900л§Ң мӣҗ)мқ„ м§Җл¶Ҳн–ҲлӢӨ. мқҙл“¬н•ҙ 4мӣ” м ңмЈјлҸ„м—җ л“Өм–ҙмҷҖ лёҢлЎңм»ӨлҘј нҶөн•ҙ мҶҢк°ңл°ӣмқҖ мқҙм—җкІҢ к№ҖнҸ¬кіөн•ӯн–ү н•ӯкіөк¶Ңкіј мҷёкөӯмқёл“ұлЎқмҰқмқ„ л°ӣм•„ к№ҖнҸ¬кіөн•ӯм—җ лҸ„м°©н•ң кІғмңјлЎң мЎ°мӮ¬лҗҗлӢӨ.	мқҙм–ҙ н•ңлӢ¬ мІҙлҘҳкё°к°„мқҙ м§ҖлӮң нӣ„м—җлҸ„ м¶ңкөӯн•ҳм§Җ м•Ҡкі  көӯлӮҙм—җ лЁёл¬јл©ҙм„ң 2014л…„ 5мӣ”л¶Җн„° 8мӣ”к№Ңм§Җ кІҪкё°лҸ„ мҲҳмӣҗмӢңл“ұм—җм„ң мқјмҡ©м§ҒмңјлЎң к·јл¬ҙн•ң нҳҗмқҳ(м¶ңмһ…көӯкҙҖлҰ¬лІ• мң„л°ҳ)лҸ„ л°ӣм•ҳлӢӨ.	Bм”ЁлҸ„ м§ҖлӮң 2014л…„ 12мӣ” мӨ‘көӯмқё лёҢлЎңм»Өм—җкІҢ 7000мң„м•Ҳ(н•ңнҷ” м•Ҫ 140л§Ң мӣҗ)мқ„ м§Җл¶Ҳн•ҳкё°лЎң м•ҪмҶҚн•ҳкі  мқҙл“¬н•ҙ 4мӣ” лӘ©м Ғмқ„ к°ҖмһҘн•ҙ мӮ¬мҰқ м—Ҷмқҙ м ңмЈјлҸ„м—җ мһ…көӯн•ң нӣ„ нҷ”л¬јм°Ё м»Ён…Ңмқҙл„Ҳм—җ мӢӨл Ө м„ л°•мңјлЎң л¶ҖмӮ°н•ӯм—җ лҸ„м°©н•ң кІғмңјлЎң мЎ°мӮ¬лҗҗлӢӨ.	мЎ°мӮ¬кІ°кіј Bм”ЁлҸ„ мІҙлҘҳкё°к°„мқҙ кІҪкіјн•ң м§ҖлӮңн•ҙ 5мӣ”л¶Җн„° 8мӣ”к№Ңм§Җ мҲҳмӣҗмқҳ кұҙм„Өнҳ„мһҘм—җм„ң мқјмҡ©м§Ғ к·јлЎңмһҗлЎң к·јл¬ҙн•ң кІғмңјлЎң л“ңлҹ¬лӮ¬лӢӨ.в–І м ңмЈјлҸ„м—җ кҙҖкҙ‘н•ҳлҹ¬ мҳЁ кІғмІҳлҹј к°ҖмһҘн•ҙ көӯлӮҙ лӢӨлҘё м§Җм—ӯмңјлЎң л¶ҲлІ• мқҙлҸҷн•ң нҳҗмқҳлЎң кё°мҶҢлҗң мӨ‘көӯмқёл“Өм—җкІҢ м§•м—ӯнҳ•мқҙ м„ кі лҗҗлӢӨ. в“’ лүҙмӢңмҠӨ м Җмһ‘к¶Ңмһҗ © мӢңмӮ¬мҳӨлҠҳ(мӢңмӮ¬ON) л¬ҙлӢЁм „мһ¬ л°Ҹ мһ¬л°°нҸ¬ кёҲм§Җ к№Җнҳ„м • кё°мһҗ sisaon@sisaon.co.krмқҙ кё°мһҗмқҳ лӢӨлҘёкё°мӮ¬ ліҙкё° лӢҙлӢ№м—…л¬ҙ : көӯм ңл¶Җмһ…лӢҲлӢӨ. мўҢмҡ°лӘ… : н–үлҸҷн•ҳлҠ” кІғмқҙ м „л¶ҖлӢӨ. лҢ“кёҖмӮӯм ң мӮӯм ңн•ң лҢ“кёҖмқҖ лӢӨмӢң ліөкө¬н•  мҲҳ м—ҶмҠөлӢҲлӢӨ. к·ёлһҳлҸ„ мӮӯм ңн•ҳмӢңкІ мҠөлӢҲк№Ң? л№„л°ҖлІҲнҳё мӮӯм ң × лҢ“кёҖ 0 лҢ“кёҖмһ…л Ҙ лЎңк·ёмқё мқҙлҰ„ л№„л°ҖлІҲнҳё лӮҙмҡ© 0 / 400 л“ұлЎқ лҢ“кёҖм“°кё° кі„м •мқ„ м„ нғқн•ҳмӢңл©ҙ лЎңк·ёмқёВ·кі„м •мқёмҰқмқ„ нҶөн•ҙ лҢ“кёҖмқ„ лӮЁкё°мӢӨ мҲҳ мһҲмҠөлӢҲлӢӨ. нҡҢмӣҗ лЎңк·ёмқё л№„нҡҢмӣҗ кёҖм“°кё° мқҙлҰ„ л№„л°ҖлІҲнҳё мһҗлҸҷл“ұлЎқл°©м§Җ нҷ•мқё × мөңмӢ мҲң м¶”мІңмҲң мқёкё°кё°мӮ¬ 1мҙқлҢҖ л©ҳ нҳ„лҢҖм№ҙл“ң, ж–°м„ұмһҘлҸҷл Ҙ вҖҳм• н”ҢнҺҳмқҙвҖҷ [м •нғңмҳҒмқҳ мҠ№л¶ҖмҲҳв‘ ] 2кіөл§ӨлҸ„, нҸҗм§Җк°Җ лӢөмқјк№Ң? [мЈјк°„н•„лӢҙ] 3к№ҖлҸ„нҳ„ вҖңмІӯл…„ м •м№ҳлһҖ лӢӨмқҢ м„ёлҢҖ мң„н•ң кІғвҖҰмқҙмһ¬лӘ…ејҸ мӢӨмҡ©м Ғ лҜјмғқ, лҜјмЈјлӢ№ к°Ҳ кёёвҖқ [мІӯл…„ мқён„°л·°] 4OECD м§„лӢЁ н•ңкөӯлі‘, к·јліём Ғ лҢҖмұ… н•„мҡ” [мқҙлі‘лҸ„мқҳ жҷӮд»Јжһ¶ж©Ӣ] 5м•ҲмІ мҲҳ вҖңмңӨм„қм—ҙ нһҳл“  кұҙ ж–Үл•Ңл¬ёвҖҰмқҙмӨҖм„қ мӮ¬нғңлЎң лҜјмЈјлӢ№ м „лһөл§Ң л¬»нҳҖвҖқ [л“Јкі ліҙлӢҲ]В 6л№„мҶҚм–ҙ л…јлһҖ, м •м№ҳ мӢӨмў…-көӯмқө мӢӨмў…мңјлЎң [пӨҠдәЁйҢ« мӢңлЎ ] 7м „кё°м°Ё ID4, мқҙм   вҖҳнҸӯмҠӨл°”кІҗ NEW лҢҖлӘ…мӮ¬вҖҷвҖҰлҠҰм—Ҳм§Җл§Ң кІҪмҹҒл Ҙ вҖҳнҷ•мӢӨвҖҷ [мӢңмҠ№кё°] 8нҢЁм…ҳ мӢңмһҘм—җлҸ„ вҖҳPBвҖҷ л°”лһҢвҖҰм—”лҚ°лҜ№В·FW мҲҳмҡ” мһЎкё° лӮҳм„  нҷҲмҮјн•‘м—…кі„ 9вҖңмқјліё IIJмІҳлҹј лҗҳкі  мӢ¶лӢӨвҖқвҖҰмӨ‘мҶҢкё°м—… нҳёмҶҢ л“Өм–ҙліҙлӢҲ [м•Ңлң°нҸ° л…јлһҖвһӮ] 10м•„мқҙнҸ°14 мӮ¬м „мҳҲм•Ҫ мӢңмһ‘вҖҰнҶөмӢ мӮ¬лі„ нҳңнғқ мӮҙнҺҙліҙлӢҲ мөңмӢ кё°мӮ¬ мӮјм„ұм „мһҗ, 2027л…„к№Ңм§Җ 1.4лӮҳл…ё м–‘мӮ°вҖҰмәҗнҢҢ 3л°° мқҙмғҒ нҷ•лҢҖ мӮјм„ұм „мһҗ, 2027л…„к№Ңм§Җ 1.4лӮҳл…ё м–‘мӮ°вҖҰмәҗнҢҢ 3л°° мқҙмғҒ нҷ•лҢҖ [мқёмӮ¬] ABLмғқлӘ… вҖҳнҡЎл № мҳӨмҠӨн…ңмһ„н”ҢлһҖнҠёвҖҷ, вҖҳлӮҙл¶Җкұ°лһҳ м—җмҪ”н”„лЎңл№„м— вҖҷ көӯк°җ лҸ„л§Ҳмң„ мҳӨлҘјк№Ң? [көӯм •к°җмӮ¬ 2022] вҖҳнҡЎл № мҳӨмҠӨн…ңмһ„н”ҢлһҖнҠёвҖҷ, вҖҳлӮҙл¶Җкұ°лһҳ м—җмҪ”н”„лЎңл№„м— вҖҷ көӯк°җ лҸ„л§Ҳмң„ мҳӨлҘјк№Ң? [көӯм •к°җмӮ¬ 2022] кө¬н•ңл§җ лҜёкөӯнҶө л°•м •м–‘кіј мңӨм„қм—ҙ лҢҖлҜё мҷёкөҗ нҢҢл¬ё [м—ӯмӮ¬лЎң ліҙлҠ” м •м№ҳ] кө¬н•ңл§җ лҜёкөӯнҶө л°•м •м–‘кіј мңӨм„қм—ҙ лҢҖлҜё мҷёкөҗ нҢҢл¬ё [м—ӯмӮ¬лЎң ліҙлҠ” м •м№ҳ] мңӨ лҢҖнҶөл № л№„мҶҚм–ҙ л…јлһҖвҖҰмқҙкІҢ лӢӨ MBC л•Ңл¬ё? [н•ңм»·мҳӨлҠҳ] мңӨ лҢҖнҶөл № л№„мҶҚм–ҙ л…јлһҖвҖҰмқҙкІҢ лӢӨ MBC л•Ңл¬ё? [н•ңм»·мҳӨлҠҳ] ж–Ү к°җмӮ¬мӣҗ м„ңл©ҙмЎ°мӮ¬ мҡ”кө¬м—җ вҖңлҢҖлӢЁнһҲ л¬ҙлЎҖвҖқ vs вҖңм„ңн•ҙ кіөл¬ҙмӣҗ н”јкІ© м§„мӢӨ л°қнҳҖм•јвҖқ [м •м№ҳмҳӨлҠҳ]В ж–Ү к°җмӮ¬мӣҗ м„ңл©ҙмЎ°мӮ¬ мҡ”кө¬м—җ вҖңлҢҖлӢЁнһҲ л¬ҙлЎҖвҖқ vs вҖңм„ңн•ҙ кіөл¬ҙмӣҗ н”јкІ© м§„мӢӨ л°қнҳҖм•јвҖқ [м •м№ҳмҳӨлҠҳ]В л°ұнҷ”м җм—…кі„, к°Җмқ„ м„ёмқј нӮӨмӣҢл“ңлҠ” вҖҳл·°нӢ°В·нҢЁм…ҳВ·н–үмӮ¬вҖҷ л°ұнҷ”м җм—…кі„, к°Җмқ„ м„ёмқј нӮӨмӣҢл“ңлҠ” вҖҳл·°нӢ°В·нҢЁм…ҳВ·н–үмӮ¬вҖҷ мӢ л¬ёмӮ¬мҶҢк°ң нҡҢмӮ¬мң„м№ҳ кё°мӮ¬м ңліҙ кҙ‘кі л¬ёмқҳ л¶ҲнҺёмӢ кі к°ңмқём •ліҙм·Ёкёүл°©м№Ё мІӯмҶҢл…„ліҙнҳём •мұ… мқҙл©”мқјл¬ҙлӢЁмҲҳм§‘кұ°л¶Җ RSS мӢңмӮ¬мҳӨлҠҳ : м„ңмҡёнҠ№лі„мӢң л§ҲнҸ¬кө¬ лҸҷкөҗлЎң13кёё 14 (лҢҖм–‘л№Ңл”© 4мёө) м „нҷ” 02)335-7114 нҢ©мҠӨ 02)335-7116 л°ңн–үВ·нҺём§‘мқё м •н•ҳк· м •кё°к°„н–үл¬ј м„ңмҡё лӢӨ 07947 л“ұлЎқмқјмһҗ 2008л…„3мӣ”17мқј мӢңмӮ¬ON : л°ңн–үВ·нҺём§‘мқё м •н•ҳк· м •кё°к°„н–үл¬ј м„ңмҡё м•„ 01018 л“ұлЎқмқјмһҗ 2009л…„ 11мӣ” 6мқј мІӯмҶҢл…„ліҙнҳёмұ…мһ„мһҗ м •н•ҳк· мӢңмӮ¬мҳӨлҠҳ(мӢңмӮ¬ON) лӘЁл“  мҪҳн…җмё (мҳҒмғҒ,кё°мӮ¬, мӮ¬м§„)лҠ” м Җмһ‘к¶ҢлІ•мқҳ ліҙнҳёлҘј л°ӣмқҖл°”, л¬ҙлӢЁ м „мһ¬мҷҖ ліөмӮ¬, л°°нҸ¬ л“ұмқ„ кёҲн•©лӢҲлӢӨ. Copyright В© 2022 мӢңмӮ¬мҳӨлҠҳ(мӢңмӮ¬ON). All rights reserved. mail to webmaster@sisaon.co.kr мң„лЎң</t>
-  </si>
-  <si>
-    <t>에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! &lt; 비즈 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-04 10:15 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [이대형 박사의 알기 쉬운 전통주 브리핑] 우리 술을 알리는 대표주자 ‘전통주 소믈리에’ 2 SIAL Paris 2022, 올해의 혁신 식품 트렌드는 '건강 &amp; 즐거움 그리고 사회적 책임' 3 바롤로 크뤼와 아트 라벨, 이탈리아 피에몬테 와인의 탑 티어 '비에띠(Vietti)' 4 고추장부터 김치까지, 2022 미국의 여름 시즌 '소스' 트렌드 5 토마스 제퍼슨의 보르도 와인 사랑을 탐구하는 다큐멘터리 ‘Eastbound Westbound’ 6 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국와인축제 개최 7 메종 멈(Maison Mumm), '우주여행’을 위한 샴페인 출시 8 2022년 '제9회 한국와인대상' 9월 30일 개최! 9 국산 수수, ‘한국형 고량주’로 변신 10 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 더보기 본문영역 이전 기사보기 다음 기사보기 에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 이지선 기자 입력 2016.11.07 15:32 수정 2016.11.07 15:40 에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 제주도의 연간 방문객이 1300만명을 넘어서고 있다. 제주도는 명실공히 국내를 대표하는 여행지로 2007년 제주 화산섬과 용암 동굴이 유네스코 세계유산에 등재되면서 세계적 관광지로도 인정받고 있다. 지난해 제주도를 방문한 외국인 관광객만 262만 명에 달한다.문화체육관광부가 10월 24일부터 11월 6일까지를 ‘2016 가을 여행주간’으로 선정, 관광지 입장료 할인, 미개방 관광지 한시적 개방, 기타 다채로운 여행 프로그램을 마련하고 있어 해당 기간에 제주를 찾는 여행객이 크게 늘어날 전망이다.최근 제주도에 자리하는 여러 여행지 중에서도 에코랜드의 인기가 뜨겁다. 이곳은30만 평의 곶자왈 부지에 기찻길을 놓고 호수를 만들어 자연생태체험과 산책, 피크닉 등을 즐길 수 있도록 하고 있다. 에코브릿지, 에코풍차, 피크닉가든, 키즈타운, 에코로드, 송이맨날체험, 수상카페, 토핑어리 등 보고 즐길거리가 많다. ▲ 옥돔, 갈치, 고등어 및 흑돼지불고기 등 제주도를 대표하는 향토음식 &lt;사진=생이소리&gt;에코랜드와 멀지 않은 곳에 자리한 사려니숲길 또한 제주를 대표하는 관광지 중 하나. 사려니숲길은 비자림로의 봉개동 구간에서 제주시 조천읍 교래리의 물찻오름을 지나 서귀포시 남원읍 한남리의 사려니오름까지 이어지는 길로 울창한 자연림이 넓게 펼쳐져 있어 산책로로 제격이다. 특히 이곳은 2009년 7월 제주시가 발표한 ‘제주시 숨은 비경 31’ 중 하나다.여행에서 빠질 수 없는 것이 바로 지역의 먹거리를 맛보는 것인 만큼 에코랜드와 사려니숲길 일대를 찾는 여행객들의 발길은 제주향토음식전문점 ‘생이소리’로 향하고 있다.해당 식당은 옥돔, 갈치, 고등어 및 흑돼지불고기 등 제주도를 대표하는 여러 향토음식을 선보이고 있는 곳으로 정갈하고 정성이 듬뿍 담긴 밑반찬과 푸짐한 상차림 덕에 여행객과 일대 주민들로부터 에코랜드 맛집으로 불리고 있다.청결하고 깔끔한 인테리어를 갖추고 있으며, 넓은 실내공간 덕에 단체 손님 또한 편안한 식사가 가능하며, 음식점과 숙소를 함께 운영하고 있어 안락한 잠자리를 원하는 여행객들로부터도 큰 주목을 받고 있다.‘생이소리’ 관계자는 “식당을 찾은 손님들이 에코랜드 맛집으로 인정해줄 때 마다 큰 자부심과 기쁨을 느낀다”며, “앞으로도 내 가족이 먹는 음식이라는 생각 아래 신선한 맛과 친절한 서비스로 보답하겠다”고 전했다.사려니숲길 맛집으로도 불리는 이곳 식당은 부스터와 하이체어가 준비되어 있어 어린 아이와 함께 가기에도 좋다는 평이다.소믈리에타임즈 이지선기자 jslee@sommeliertiems.com 이지선 기자 jslee@sommeliertimes.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 맛있는 녀석들, 군대특집으로 먹방 최초, 군부대 P.X 먹방 공개!...뽀글이와 빅 소시지, 각종 냉동식품, 건빵을 활용한 다양한 레시피 VJ특공대, 떡으로 예술 하는 남자, 떡 인형 공예가 오권석씨의 떡을 향한 열정, 백종원부터 스파이더맨까지 와인을 온천으로 즐긴다, 레드와인과 샴페인을 온몸으로! 백종원의 3대천왕, 돌냄비 우동과 즉석 얼큰 우동 vs 치즈돈가스, 매운돈가스와 경양식 돈가스 [김세한의 서양요리] &lt;2&gt; 애피타이저(Appetizer), 아보카도 퓨레를 곁들인 게살 팀발(Crab Timbale with Avocado Puree 김장배추가격 큰 폭 오름 없다!, 정보제공, 공급안정, 비용절감 등 대책 마련 최신뉴스 2022년 '제9회 한국와인대상' 심사위원단 [이건구 오늘 와인한잔] 와인 마실 곳을 찾아서, 청담동 '레스토랑 강민철' 2022년 제9회 한국와인대상 샤또 무똥 로칠드 '도멘 바로나크(Domaine de Baronarques)'의 세일즈 매니저 페린 쉐퍼(Perrine Schaeffer) 2022년 '제9회 한국와인대상' 9월 30일 개최! 포토뉴스 2022년 '제9회 한국와인대상' 심사위원단 [이건구 오늘 와인한잔] 와인 마실 곳을 찾아서, 청담동 '레스토랑 강민철' 2022년 제9회 한국와인대상 샤또 무똥 로칠드 '도멘 바로나크(Domaine de Baronarques)'의 세일즈 매니저 페린 쉐퍼(Perrine Schaeffer) 인기뉴스 1 [이대형 박사의 알기 쉬운 전통주 브리핑] 우리 술을 알리는 대표주자 ‘전통주 소믈리에’ 2 SIAL Paris 2022, 올해의 혁신 식품 트렌드는 '건강 &amp; 즐거움 그리고 사회적 책임' 3 바롤로 크뤼와 아트 라벨, 이탈리아 피에몬테 와인의 탑 티어 '비에띠(Vietti)' 4 고추장부터 김치까지, 2022 미국의 여름 시즌 '소스' 트렌드 5 토마스 제퍼슨의 보르도 와인 사랑을 탐구하는 다큐멘터리 ‘Eastbound Westbound’ 6 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국와인축제 개최 7 메종 멈(Maison Mumm), '우주여행’을 위한 샴페인 출시 8 2022년 '제9회 한국와인대상' 9월 30일 개최! 오늘의 추천 [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 [오늘의 추천] 비에티, 모스카토 다스티 2021 모스카토 3대장 중 하나 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [이건구 오늘 와인한잔] 와인 마실 곳을 찾아서, 청담동 '레스토랑 강민철' 2022년 '제9회 한국와인대상' 9월 30일 개최! [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 2022 세계 스테이크 챌린지, ‘일본 와규’ 대상 자치 행사/EVENT 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 시음회 Bottleshock 1st Grand Tasting 9월 27일(화) 1부 14-17시, 2부 19-23시, 와인소셜(강남구) 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [이대형 박사의 알기 쉬운 전통주 브리핑] 우리 술을 알리는 대표주자 ‘전통주 소믈리에’ SIAL Paris 2022, 올해의 혁신 식품 트렌드는 '건강 &amp; 즐거움 그리고 사회적 책임' 바롤로 크뤼와 아트 라벨, 이탈리아 피에몬테 와인의 탑 티어 '비에띠(Vietti)' 고추장부터 김치까지, 2022 미국의 여름 시즌 '소스' 트렌드 토마스 제퍼슨의 보르도 와인 사랑을 탐구하는 다큐멘터리 ‘Eastbound Westbound’ 론칭 및 프로모션 기사 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 [와인&amp;피플] 샤또 무똥 로칠드가 쓰는 남프랑스 와인의 새로운 역사, 도멘 바로나크 보틀샤크, ‘OK금융그룹 박세리 인비테이셔널’ 골프 대회 공식 스폰서로 참여 및 성료 레뱅드매일 ‘스윙 쉬라즈’ 와인, 출시 1년 만에 GS25에서 50만병 판매 와인픽스, 가을맞이 슈퍼콘과 협업해 15% 할인권 판매 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>JCC, “오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것” - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 JCC, “오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 JCC, “오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것” 김동일 기자 승인 2016.11.06 18:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × JCC㈜, 6일 ‘제주 오라관광단지 사업 제2차 주민간담회 개최오수 100% 자체 처리 밝혀…“나머지는 제주도와 협의할 것” JCC㈜가 6일 오라관광단지 조성 사업 현장사무실에서 오라·오등동 주민 등 80여 명이 참석한 가운데 ‘제주 오라관광단지 사업 제2차 주민간담회’를 진행하고 있다. 김동일 기자 flash@jejuilbo.net [제주일보=김동일 기자] 제주특별자치도가 제주 오라관광단지 개발 사업에 대한 환경영향평가서와 관련해 사업자에 보완을 요구한 가운데 JCC㈜는 6일 “내부 검토를 거쳐 제주도와 협의하겠다”고 밝혔다.JCC㈜는 이날 오라관광단지 조성 사업 현장사무실에서 오라·오등동 주민 등 80여 명이 참석한 가운데 ‘제주 오라관광단지 사업 제2차 주민간담회’를 열고 사업진행 상황과 주요 현황 등을 설명하는 시간을 가졌다.JCC㈜는 이날 발표 자료를 통해 지난 4일 제주도가 요구한 ▲지하수 사용량 최소화 및 상·중수도 사용계획 ▲하수 및 폐기물의 전량 자체 처리 ▲사업부지 내 휴양콘도시설 적정수요량 재산정 및 조정 등의 보완의견에 대한 계획을 내놨다.JCC㈜는 단계별 개발계획에 따라 1~2단계에서는 오수를 100% 자체 처리하고 3단계 개발 이후 도두하수처리장으로 이송하는 당초 오수처리계획에서 100% 자체적으로 처리하겠다는 입장을 밝혔다. 사실상 제주도의 보완 요구 사항을 수용한 셈이다.지하수 사용 최소화와 관련해서는 생활용수와 관개용수는 100% 중수와 우수로 사용하고 지하수는 허가량 5350㎥ 가운데 4740㎥로 사용량을 저감하겠다는 계획이 포함됐다. 이는 JCC㈜가 지난달 제주도에 제출한 사업계획 변경(안)에서 제시된 4750㎥보다 10㎥ 줄어든 것으로, 기존 계획에서 크게 벗어나지 않았다.JCC㈜ 특히 지하수 사용량 최소화와 휴양콘도미니엄 수요량 재산정 및 조정에 대한 제주도의 구체적인 가이드라인 및 범위가 제시되지 않은 만큼 내부 논의를 거쳐 제주도와 협의하겠다는 입장을 내비쳤다.박영조 JCC㈜ 대표이사는 주민들에게 “법과 제도 내에서 사업을 추진할 것”이라며 “특히 관광객들이 오랫동안 머물 수 있는 관광단지를 만들어 제주관광의 질적 향상을 이룰 것”이라고 밝혔다.JCC㈜ 관계자는 “지난 4일 제주도로부터 보완 요구에 대한 문서를 받았으며, 현재 내부적으로 논의가 이뤄지지 않은 상황”이라며 “내부 검토를 거친 뒤 제주도와 협의에 나설 것”이라고 말했다.이에 대해 이영웅 제주환경운동연합 사무처장은 “제주도의 보완 요구는 현재 논란이 되고 있는 부분을 상쇄하기에는 미흡하다”면서 “특히 휴양콘도시설 적정수요량 재산정 및 조정은 열안지 오름 주변과 신규부지 숙박시설 제척 등의 구체적인 제시 내용이 없어 적당한 선에서 규모를 줄이는 방향으로 사업안이 제출될 수 있다고 본다”고 말했다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 이승현 기자 승인 2016.11.01 16:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=이승현 기자] 제주특별자치도와 관광협회(회장 김영진)는 지난 9~10월에 걸쳐 도내 관광사업체를 대상으로 하는 제2차 관광사업자 컨설팅 지원을 진행했다고 1일 밝혔다.이번 사업은 사업체 운영에 있어 다양한 현안사항을 안고 있는 도내 영세 관광사업체 중심으로 맞춤형 컨설팅 지원을 통해 사업체의 대외 경쟁력을 강화하기 위해 추진됐다.공개모집을 통해 선정된 관광사업체 10개사를 대상으로 전문가들이 해당업체를 직접 찾아 경영 컨설팅 지원과 세무‧회계 부문, 법무‧법률 부문의 자문 및 상담을 진행했다.컨설팅 후 만족도 조사 설문 결과에서도 본 컨설팅 사업에 대해서는 전반적으로 참가자가 만족한다고 응답했다.세부적으로는 경영컨설팅과 세무·회계 분야에서는 응답자의 87.5%, 법무·법률 분야에서는 응답자 전원이 만족한다는 의견이 제시됐다.도관광협회 관계자는 “컨설팅에 참여한 관광사업체들의 만족도가 높고 영세 사업체의 대외 경쟁력을 확보하기 위해 내년에도 컨설팅 지원 사업을 이어 나갈 예정”이라고 말했다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>산청군 문화관광해설사회, 제주도 답사</t>
+  </si>
+  <si>
+    <t>제주도, 연 관광객 1500만 시대…쓰레기 처리 '비상'</t>
+  </si>
+  <si>
+    <t>강경식 제주도의원 "오라관광단지 개발 자본실체 밝혀라"</t>
+  </si>
+  <si>
+    <t>제주도 '생각하는 정원', 중국으로부터 품질관광 서비스 인증 획득</t>
+  </si>
+  <si>
+    <t>제주도의 관광 문화 콘텐츠와 세계적인 공연문화를 만날 수 있는 공간</t>
+  </si>
+  <si>
+    <t>2016 제주도관광협회장배 친선골프대회 개최</t>
+  </si>
+  <si>
+    <t>제주도-관광협회 '팜팜버스'가을 이벤트 실시</t>
+  </si>
+  <si>
+    <t>제주도관광협회-日 나가사키국제관광협회, 비즈니스 협력마케팅 전개</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 환경영향평가서 보완 요구</t>
+  </si>
+  <si>
+    <t>제주도 최대 카지노까지 중국 자본 유입…관광수익 재유출 우려</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 연간 관광객 1500만 돌파 눈앞 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 베트남 하노이에 홍보사무소…관광객 유치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 상가관광지 부지 되산다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 증가하는 제주도 서귀포 관광객, 중문 독채 펜션 선호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "제주도, '오라관광단지 개발 추진' 원칙 지켜라" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오라 관광단지 개발은 제주도의 재앙 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더민주 제주도당 "원희룡 지사, 오라관광단지 입장 분명히 밝혀야" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "11월 제주도, 한라산 단풍 관광이 포인트" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 '관광객 1400만명' 돌파 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '제주도 관광' 입국해 국내 불법 체류한 중국인 징역형 선고 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 관광객 증가 제주도, 풀빌라형 타운하우스 인기 이유는? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 임대수익차 전국 최고... 중문 등 관광지 수익형 부동산 관심↑ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JCC, "오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 </t>
+  </si>
+  <si>
+    <t>산청군 문화관광해설사회, 제주도 답사 - 경남매일 × 전체기사 뉴스 전체 탑뉴스 종합 사회 지역종합 경제 김해판 문화 스포츠 연예 교육 생활/건강 국제 핫뉴스 회사 사고 교육플러스 IT·과학 의학 정치 이슈 어르신 오늘 기획/특집 전체 기획탐방 트래블 &amp; 레저 맛집 멋집 길따라~발따라~ 우리동네 정치인 도내 강소기업을 찾아서 기획 고택(古家)을 찾아서 주목! 이 단체 취임 100일 신년사 투데이플러스 전체 한 주를 밝히는 시 이 주의 책갈피 오늘의날씨 Easy&amp;Fun English 고사성어 금요묵향전시실 전문상담실 사람들 전체 사람들 알립니다 오피니언 전체 가야로 구지봉 기고 기자수첩 이헌동 칼럼 김루어의 아침을 여는 시선 김세완 칼럼 김영복의 미각회해 도명스님 산사정담 도명스님 칼럼 독자투고 류의 한 줄 영어뉴스 류한열의 書香萬里 매일시론 발언대 박정기의 열정 얘기 박재근 칼럼 박춘국의 이 생각 저 생각 박태홍 칼럼 법률칼럼 봉수대 사설 산해정 살며 생각하며 삶의 흔적들 송종복의 한자와 역사 이야기 안다미로 안전칼럼 안태봉의 이바구 강때바구 언어심리치료 어르신 오늘 역사칼럼 연재소설 이모저모 이 생각 저 생각 이대형 칼럼 이태균 칼럼 이호근의 쉬운경매, 공매 의학칼럼 e시각 지산역설 &lt;志山易說&gt; 지역시단 향기 증도가 촌철활인 춘추방담 취재파일 퇴직재무설계 허성원의 여시아해 허성원 칼럼 하성재 칼럼 현장속에서 한용 칼럼 행복한 수필 風向計 전문상담실 전체 법률상담 건강과 의료 국민건강보험상담 국민연금상담 병무상담 세무상담 소비자상담 선거법 Talk Talk Talk 블로그 전체 오늘의 운세 동영상뉴스 전체 제보영상 임시메인 동영상 전체 동영상뉴스 독자투고영상 K다문화신문 CEO아카데미 로그인 회원가입 독자투고 구독신청 기사검색 검색 전체서비스 뉴스 종합 사회 정치 지역종합 교육 경제/IT 국제 스포츠 문화 연예 생활/건강 핫뉴스 기획/특집 기획탐방 맛집 멋집 길따라~발따라~ 사람&amp;사람 사람들 알립니다 오피니언 박재근 칼럼 구지봉 편집국의 창(窓) 매일시론 발언대 취재파일 사설 기고 봉수대 춘추방담 이호근의 쉬운경매, 공매 교육소식 커뮤니티 기사제보 독자투고 건의사항 알립니다 구인/구직 자유게시판 뉴스 종합 사회 정치 지역종합 교육 경제/IT 국제 스포츠 문화 연예 생활/건강 핫뉴스 기획/특집 기획탐방 맛집 멋집 길따라~발따라~ 사람&amp;사람 사람들 알립니다 오피니언 박재근 칼럼 구지봉 편집국의 창(窓) 매일시론 발언대 취재파일 사설 기고 봉수대 춘추방담 이호근의 쉬운경매, 공매 교육소식 커뮤니티 기사제보 독자투고 건의사항 알립니다 구인/구직 자유게시판 포토 CEO아카데미 경남매일 TV 커뮤니티 기사제보 독자투고 건의사항 알립니다 구인/구직 자유게시판 PDF지면보기 2022-10-11 12:21 (화) `진주남강유등축제` 7만 등불 밝히며 개막 지역 취약계층 좋은이웃 나눔 후원금 기탁 경남 의원 하반기 행안부 특별교부세 확보 사천 추도 해상서 선박 침수 해경， 구조정 급파 항구 예인 보이스피싱 범죄 은행원 기지로 예방 밀양 한 고교 포르말린 유출… 17명 경상 여성운동 선구자 `이이효재` 재조명 창원 이산화탄소 누출… 책임자 처벌 촉구 대동생태체육공원 코스모스 `한들한들` "소통ㆍ통합 김해복지재단 이끌 것" 김해-강릉 대표축제 교류 첫걸음 의생명 기업체 수도권 판로 개척 국제 공인 인증센터 개소… 의생명산업 고도화 마약성 진통제 오남용 심각 경남 의원 상임위서 존재감 부각 힘써 이전 다음 산청군 문화관광해설사회, 제주도 답사 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람들 사람들 산청군 문화관광해설사회, 제주도 답사 김영신 기자 승인 2016.11.29 21:53 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 산청군 문화관광해설사회(회장 성순용)가 해설사 개인 역량 강화를 통해 산청을 찾는 관광객에게 보다 나은 해설 서비스를 제공하고자 제주도에서 하반기 지역 외 답사활동을 펼쳤다고 29일 밝혔다. 저작권자 © 경남매일 무단전재 및 재배포 금지 김영신 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 포토뉴스 산청 한약방체험 부스 `인기` 산청군 신소득작물 `샤인머스켓` 인기 의령 댑싸리 단지 `붉게 물든 추억` "창원 개구리섬 해상 선박 구조" `진주 형평운동 100주년` 축제 준비 만전 함양 개평한옥마을 목화솜 말리기 거창 감악산 가을 `갈대 바람` 김해 줄넘기 클럽대항전 경연대회 "진주 초등생， `기후위기 해결` 행진" 함양 마천면 고추 말리기 한창 산청 한약방체험 부스 `인기` 산청군 신소득작물 `샤인머스켓` 인기 의령 댑싸리 단지 `붉게 물든 추억` "창원 개구리섬 해상 선박 구조" `진주 형평운동 100주년` 축제 준비 만전 함양 개평한옥마을 목화솜 말리기 거창 감악산 가을 `갈대 바람` 김해 줄넘기 클럽대항전 경연대회 "진주 초등생， `기후위기 해결` 행진" 함양 마천면 고추 말리기 한창 최신기사 `진주남강유등축제` 7만 등불 밝히며 개막 `진주남강유등축제` 7만 등불 밝히며 개막 지역 취약계층 좋은이웃 나눔 후원금 기탁 지역 취약계층 좋은이웃 나눔 후원금 기탁 경남 의원 하반기 행안부 특별교부세 확보 사천 추도 해상서 선박 침수 해경， 구조정 급파 항구 예인 보이스피싱 범죄 은행원 기지로 예방 보이스피싱 범죄 은행원 기지로 예방 밀양 한 고교 포르말린 유출… 17명 경상 여성운동 선구자 `이이효재` 재조명 여성운동 선구자 `이이효재` 재조명 연예 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 경상남도 김해시 대청로104번길 66 경남매일 3층 대표전화 : 055)323-1000 팩스 : 055)323-3651 청소년보호책임자 : 류한열 법인명 : 경남매일 제호 : 경남매일 등록번호 : 경남 가 0002 등록일 : 2017-04-05 발행일 : 2017-05-01 발행인 : 정창훈 편집인 : 정창훈 경남매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 경남매일. All rights reserved. mail to webmaster@gnmaeil.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 연 관광객 1500만 시대…쓰레기 처리 '비상' | JTBC 뉴스 서비스 메뉴 바로가기 본문 바로가기 아티클 바로가기 프로그램 목록 바로가기 신문 중앙일보 중앙SUNDAY 일간스포츠 Korea Joongang Daily The Korea Daily 조인디 방송 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF JTBC worldwide 멀티플렉스 &amp; 레저 메가박스 필름 소사이어티 클래식 소사이어티 휘닉스 호텔앤드리조트 휘닉스 평창 휘닉스 섭지코지 매거진 &amp; 출판 월간중앙 이코노미스트 포브스코리아 중앙북스 엘르 바자 코스모폴리탄 에스콰이어 전문 콘텐트 조인스랜드 헬스미디어 차이나랩 어문연구소 영어의 신 ESU 서비스 JOINS PRIME 썰리 fol:in JTBC NOW JTBC NEWS OOH MEDIA 중앙멤버십 JJ라이프 렛츠고시골 TJ4대전충청 CLOSE JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF 중앙그룹 브랜드 회원가입 로그인 JTBC 뉴스 방송 편성표 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC Golf 온에어 검색열기 키워드 검색하기 닫기 뉴스홈 속보 정치 경제 사회 국제 문화 연예 스포츠 날씨 다시보기 JTBC 뉴스룸 아침&amp; 썰전 라이브 정치부 회의 보도특집 오픈 저널리즘 타임라인 이슈 VOD 이슈 기자 구독 뉴스제보 JTBC SNS 여론조사 JTBC 뉴스룸 VOD 다시보기 AOD 다시듣기 팩트체크 밀착 카메라 비하인드+ 월페이퍼 카드뉴스 영상구성 랭킹 APP 제보하기 제주도, 연 관광객 1500만 시대…쓰레기 처리 '비상' 입력 2016-11-21 09:37 크게 작게 프린트 메일 URL 줄이기 페이스북 트위터 복사 URL 줄이기 레이어 닫기 [앵커]제주를 찾는 관광객이 올해 처음으로 1500만명을 넘어설 것으로 보입니다. 제주에서는 반가운 소식이긴 한데, 사람들이 남기고 간 쓰레기 때문에 골머리를 앓고 있다고 합니다. 최충일 기자입니다.[기자]해가 뜨기 전 환경미화원들의 손길이 분주합니다.수거함마다 가득한 쓰레기를 처리하느라 애를 먹습니다.[조영진/제주시 생활환경과 : 3년 전에는 쓰레기를 거둬가는 데 1시간 반정도 걸렸는데 지금은 쓰레기가 눈에 띄게 늘어나서 2시간 이상 걸리고 있습니다.]제주 인구는 최근 5년간 해마다 만 명씩 늘어 지난 5월엔 65만명을 넘어섰습니다.게다가 올해 제주를 찾은 관광객이 지난 13일 처음 1,400만명을 돌파한데 이어 연말이면 1,500만명에 이를 전망입니다.하루 평균 제주 체류 인원이 14만여 명에 이르면서 경제 상황에는 큰 도움이 되고 있지만 생활쓰레기와 건축폐기물 등도 덩달아 늘어나면서 도내 쓰레기 처리 시설은 포화상태를 보이고 있습니다.제주도는 내년부터 쓰레기봉투 값을 40% 올리고 2018년에는 제주시 동복리에 추가 처리시설을 세울 계획입니다.하지만 반대하는 주민이 많아 올 6월 예정이었던 착공이 연기되는 등 앞으로의 쓰레기 처리에 비상이 걸렸습니다. 취재촬영 최충일 / 중앙일보 기자 | 해당 기자의 기사 구독신청 구독해지 이 기자가 쓴 다른 기사 보기 : 제주 오픈카 사망 항소심, 살인 '무죄' 음주운전 치사 '유죄' JTBC 제주 주재 기자 최충일입니다. 아름다운 제주도의 진면목을 보여드리는데 최선을 다하겠습니다. 이메일 문석빈 / 영상취재팀 기자 | 해당 기자의 기사 구독신청 구독해지 이 기자가 쓴 다른 기사 보기 : 태풍 '난마돌' 일 가고시마 상륙…제주서 낚시객 1명 숨져 제주를 책임지는?섬 사나이 문석빈 입니다. 이메일 이전 취재기자 보기 다음 취재기자 보기 이전 다음 JTBC 뉴스 유튜브 공식 채널 구독하기 JTBC 뉴스 카카오톡 공식 채널 친구추가 JTBC 뉴스 페이스북 공식 채널 좋아요 프린트 메일 페이스북 트위터 URL 줄이기 복사 URL 줄이기 레이어 닫기 JTBC 핫클릭</t>
+  </si>
+  <si>
+    <t>강경식 제주도의원 "오라관광단지 개발 자본실체 밝혀라" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 강경식 제주도의원 "오라관광단지 개발 자본실체 밝혀라" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 강경식 제주도의원 "오라관광단지 개발 자본실체 밝혀라" 송고시간2016-11-15 14:53 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 제주도와 사업자 JCC에 자본 실체 검증 공개 질의 (제주=연합뉴스) 변지철 기자 = 강경식 제주도의회 의원과 김용철 공인회계사는 25일 "자본에 대한 실체 검증 없이 추진되는 오라관광단지 개발사업 인허가 절차를 전면 중단하라"고 주장했다. 제주도의회 의사당 전경 [연합뉴스 자료사진] 이들은 이날 오후 제주도의회 도민의 방에서 기자회견을 열어 제주도와 오라관광단지 개발사업자 JCC에 '자본의 실체 검증을 위한 공개 질의'를 하며 이같이 말했다. 강 의원은 "오라관광단지 개발사업이 시민사회단체를 비롯한 각계각층의 많은 우려와 각종 의혹 제기로 제주도는 사업자에게 보완요구를 하면서 잠시 숨고르기에 들어갔다"며 "일사천리로 각종 인허가 절차를 처리하던 제주도가 자본의 적격성과 투자계획 등을 검토·심의하겠다고 말하고 있으나 도민의 악화한 여론을 잠시 무마하면서 사업 승인 절차를 밟아나갈 가능성이 농후해 보인다"고 지적했다. 광고 그는 "지난 11월 9일 사업설명회를 개최하면서 개발사업 승인을 촉구하던 사업자 대표 박영조 JCC 회장이 제주를 바라보는 천박한 인식과 오만은 사업을 정상적으로 추진할 수 있는 인사인지 의심케 했다"며 "도민들은 JCC가 초기 사업비를 투자해 개발사업 인허가를 받고 나면 막대한 지가상승의 이익을 누리면서 분야별 자본을 유치해 사업을 추진해 나가는 전형적인 부동산 개발업자라는 결론에 이르렀을 것"이라고 강조했다. 강 의원은 박 회장이 JCC 주식회사 지분의 100％를 소유한 하오싱 인베스트먼트는 자기 아들이 100％ 소유하고 있는 회사이고, 전 세계적 조세회피처로 유명한 버진 아일랜드에 소재하고 있다고 밝힌 바 있다고 설명했다. 이어 "부동산 전문가에 따르면 개발사업이 승인되고 기반시설이 구축되면 지가는 최소 7∼8배 이상 오르게 되고 심지어 박영조 회장의 말처럼 평당 1천만원으로 오를 수 있다"며 "왜 조상 대대로 물려온 제주의 소중한 땅을 국내 대기업도 아닌 자본의 실체조차 검증 안 된 기업에 팔아넘기며 국부유출을 해야 하느냐"고 반문했다. 그는 김용철 공인회계사와 함께 오라관광단지 개발사업 자본의 실체를 검증하기 위해 하오싱 인베스트먼트에 대한 주주명부와 이사회 구성원 명단 등 '자본의 실체 검증을 위한 공개 질의'를 제주도와 오라관광단지 개발사업자 JCC를 상대로 하고, 10일 이내에 답변할 것을 요구했다. 오라관광단지 개발사업은 제주시 오라2동 산56의 2 일대 353만9천341㎡에 6조2천800억원을 들여 컨벤션과 어드벤처 존 등 휴양문화시설, 5성급 호텔(2천500실)과 휴양콘도미니엄(1천842실) 등 관광숙박시설, 테마쇼핑몰과 명품빌리지 등 상업시설, 18홀 골프장 등을 짓는 제주 최대 리조트 사업이다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/11/15 14:53 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 ‘생각하는 정원’, 중국으로부터 품질관광 서비스 인증 획득 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 12:03 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 제주도 ‘생각하는 정원’, 중국으로부터 품질관광 서비스 인증 획득 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 생활경제 여행레저 제주도 ‘생각하는 정원’, 중국으로부터 품질관광 서비스 인증 획득 국내 4번째, 세계 11번째 인증국내 식물원 및 박물관 분야는 최초 강민수 기자 승인 2016.11.24 13:07 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × &lt;사진제공=생각하는정원&gt;[이뉴스투데이 강민수 기자] 제주도의 명소 중 하나로 꼽히는 ‘생각하는 정원’이 최근 중국 국가여유국에서 시행하는 품질관광서비스 인증(QSC, Quality Service Certification)을 획득했다고 밝혔다.이는 에버랜드, 롯데월드, 한국민속촌에 이어 국내 4번째, 세계 11번째 인증이며 국내 식물원 및 박물관 분야에서는 최초다.품질관광 서비스 인증은 중국 국가관광국 관리 하에 중국 여행사 협회가 실행하는 프로그램으로, 중국관광객을 대상으로 하는 기업의 제품, 서비스를 평가 및 인증하고 해당 제품이나 서비스를 중국 시장에서 적극 홍보하고 중국의 해외 여행자 및 여행사들에게 양질의 관광 상품을 추천하는 역할을 해온 바 있다.중국으로부터 품질관광서비스 인증을 받게 되면 해당 관광명소는 중국 해외관광품질서비스 ‘QSC’ 인증서 및 라벨을 획득하고 중국 내 관련 웹사이트, 중국출경여유핸드북 등에 등재된다. 한편 제주도 ‘생각하는 정원’은 장쩌민, 후진타오, 시진핑 중국 국가주석이 연이어 방문한 곳으로 중국 국민들에게 잘 알려져 있으며 중국 국영교과서 &lt;역사와 사회&gt;에 ‘개척진취, 견인불발, 자강불식’의 정신을 가진, 한국문화의 상징적인 곳으로 소개되기도 했다.‘생각하는 정원’ 관계자는 “우리 명소가 이번에 QSC 인증을 획득한 것은 생각하는 정원만의 독창적인 창조정신과 집념, 철학과 예술이 중국 국민들의 의지와 열정, 문화예술에 대한 생각에 영향을 줄 수 있을 것이라는 중국 정부의 교육적 판단 때문인 것으로 생각된다”며 “앞으로도 세계인 누구나 교감하고 소통할 수 있는 공간, 문화와 예술이 꽃피는 공간으로 생각하는 정원이 발전해나갈 수 있도록, 더욱 세심한 노력을 기울이겠다”고 말했다. Tag #N 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 강민수 기자 sinclair83@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 의왕 청계동평생학습센터, 평생대학 수강생 모집 의왕 청계동평생학습센터, 평생대학 수강생 모집 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 2부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 3의왕 청계동평생학습센터, 평생대학 수강생 모집 4광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 5카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의 관광 문화 콘텐츠와 세계적인 공연문화를 만날 수 있는 공간 &lt; 영화/공연 &lt; 문화 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도의 관광 문화 콘텐츠와 세계적인 공연문화를 만날 수 있는 공간 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 영화/공연 제주도의 관광 문화 콘텐츠와 세계적인 공연문화를 만날 수 있는 공간 기자명 김민재 기자 입력 2016.11.23 17:57 수정 2016.11.23 17:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (서울=국제뉴스) 김민재 기자 = 제주도 서귀포시 중문단지에 위치한 (주)신세계공연장 (대표 편승문)은 2012년부터 제주방문 관광객 1천만명 시대를 대비한 한국의 세계적 자연유산 제주특별자치도의 관광문화발전에 이바지하고자 건립된 대규모의 서커스 전용 돔 공연장이다. 이 대규모 서커스 돔 공연장에서 2013년 한국의 전통 ‘동춘서커스’를 시작으로 2015년 대한민국 탑 아트 ‘K-Show’를 제작, 공연되었으며, 2016년 현재는 브라질 문화예술을 접목한 ‘삼바 두 브라질’이 공연 되고 있다. 지금은 대부분 사라지고 없는 추억의 공연 서커스는 영국에서 처음 생겨난 후 19세기 후반까지 전문적이고 규모를 갖춘 극단으로 발전했지만 TV 등 다양한 오락매체에 밀려 점차 사라지고, 중국과 러시아 같은 일부국가에서 그나마 국가적 문화산업으로 보호 되고 있다. 하지만 세계적인 흥행으로 그 가능성을 보여준 ‘태양의 서커스’에서 본 것 같이 오늘날의 공연 문화산업은 그 예전 천막속의 서커스가 아닌 종합예술로 발전하고 있다. 제주도는 국내 관광객 뿐 아니라 해외의 많은 관광객이 방문하고 싶어 하는 관광명소이다. 국내전통공연 예술의 명맥을 유지함과 동시에 (주)신세계공연장의 ‘삼바 두 브라질’을 세계적 규모 공연예술로 발전시키고 있다. 2013년 공연되었던 ‘동춘서커스’는 일제강점기인 1925년에 창단해 어려웠던 시절 국민들에게 꿈과 희망을 주었던 한국 전통 곡예단 ‘동춘서커스’의 명백을 이은 공연으로 서민들의 삶과 애환을 담은 향수어린 공연이라는 찬사를 받았다. 이어서 2015년에 선보인 ‘K-show’는 한국의 장단과 추임새, 전통무술 등을 바탕으로 세계 각국의 다양한 기예를 하나로 접목시켜 제주에서만의 독특한 무대예술을 새롭게 창조해 선보인 순수 창작공연이다. (주)신세계공연장 편승문 대표는 “한국문화를 무대예술로 승화시켜 제주도의 문화발전에 새로운 이정표를 제시하기 위해 10년을 준비해서 진행한 작품이 ‘K-show’ 였다. 대한민국의 1%가 세상을 바꾸어 나아갈 수 있다는 생각으로 국내 최고의 탑 아트 스틸러를 통한 전통 무술 퍼포먼스를 결합한 공연예술로 다양한 이미지 홍보 마케팅을 통해 가장 친근하고 한국적인 모습을 보임으로 큰 호응을 이끌어 낼 수 있었던 작품이다.”라고 밝혔다. 그러나 공연장을 개장하여 관광객들의 큰 호응을 얻어 전국적인 관광 콘텐츠로서의 기반을 구축해 나아갈 즈음 2014년 4월 ‘세월호 참사’ 발생으로 제주 입도 관광객 수 감소와 2015년 5월 ‘메르스 사태’ 추가 발생으로 공연 출연진 보다 관객 수가 적을 정도로 유지하기가 힘들었으나 이때도 편승문 대표는 묵묵히 희망의 끈을 놓지 않고 공연예술을 지켜 나아갈 수 있는 새로운 공연을 기획 했다. 2016년에 기획된 ‘삼바 두 브라질’은 리오 카니발을 그대로 옮겨 놓은 것과 같은 초대형 삼바 공연으로 브라질 현지 최고의 댄서와 배우들로 구성된 판타스틱 아트쇼이다. 브라질 현지에서 직접 제작한 화려한 의상과 웅장한 사운드, 공연장 내에 설치된 대형 LED 빛의 향연이 더해져 화려하고 멋진 감동의 무대로 관객들의 탄성을 자아내고 있다. 한국의 공연예술 발전을 위해 노력하고 있는 편승문 대표는 소외계층을 위한 무료공연 과 제주 노인을 위한 일자리 제공 등 사회 봉사활동도 꾸준히 이어가고 있으며 이러한 공로를 인정받아 2016년 ‘제12회 대한민국의정대상 &amp; 대한민국인물대상’ 시상식에서 문화산업-공연예술 분야 대상을 수상하였다. 편승문 대표는 “세계적인 유명 공연처럼 국내 공연예술을 세계적인 브랜드화로 이끌고 싶습니다. 아직 많이 부족하지만 한국적인 색깔을 담아낸 신개념 공연예술을 제작하며 그 목표를 하나씩 이루어 나가가고 있습니다. 이미 제주도의 관광 문화 콘텐츠와 세계적인 공연문화를 만날 수 있는 공간을 제주 서귀포 중문단지에 마련하였으며, 이러한 계기를 통하여 국내는 물론 해외에서도 신세계공연장의 공연예술 콘텐츠를 알릴 수 있도록 더욱 노력하겠습니다.”라며 수상소감을 전했다. 김민재 기자 monologistkim@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>2016 제주도관광협회장배 친선골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2016 제주도관광협회장배 친선골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2016 제주도관광협회장배 친선골프대회 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2016.11.23 17:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 국내 아마추어 골퍼 400여명 제주로 집결 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 23일과 24일 제주도내 골프장 3곳에서 1박2일 간의 일정으로 '2016 하반기 제주특별자치도관광협회장배 아마추어 친선골프대회'를 개최했다.올해로 6년째를 맞는 이 대회는 제주 골프관광의 저변 확대와 고부가가치 레저스포츠 관광객 유치 활성화를 위해 매년 상.하반기마다 열리는 대회로, 전국 400여명의 아마추어 골퍼들이 출전했다. 참가자들은 대회 첫날인 23일 제주공항에서 에버리스CC, 라온GC, 세인트포CC로 각각 이동해 18홀 대회 라운딩을 즐겼다. 특히, 이번 대회는 내국인 레저스포츠 관광객 유치를 위한 골프관광상품으로 기획, 제주도내 골프장 경영 활성화에도 실질적인 기여를 했다는 평가다. 김영진 제주관광협회장은 "이번 대회는 제주도와 제주도관광협회가 골프대회와 연계한 고부가가치 골프관광상품을 개발하는 등 적극적인 마케팅 활동으로 이뤄진 성과이며, 앞으로도 골프의 메카 제주를 지속적으로 홍보해 골프관광객 유치에 어려움을 겪고 있는 제주도내 골프장업계에 기여할 수 있도록 적극적으로 노력해 나갈 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-관광협회 '팜팜버스'가을 이벤트 실시 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회 '팜팜버스'가을 이벤트 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-관광협회 '팜팜버스'가을 이벤트 실시 기자명 고병수 기자 입력 2016.11.20 20:21 수정 2016.11.20 20:54 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주도와 道관광협회는 1·2·3차 산업 융복합 관광상품 개발사업의 일환인 "팜팜(Farm &amp; Family)버스" 가을 이벤트를 19일 명도암 참살이마을에서 관광객과 도민 150여명이 참가한 가운데 성황리에 실시됐다고 20일 밝혔다.이번 팜팜 이벤트는 명도암 마을의 특화 체험 프로그램인 김치만들기와 바비큐 파티, 수경식물 화분 만들기, 마을 라이브 가수 공연 등 다양한 체험거리와 즐길거리를 소재로 기획됐다.이날 이벤트는 참가정원 150명이 조기매진되고 추가 주문 등으로 이어져 그 인기를 실감케 했다는 것.특히 김치만들기 프로그램은 마을농부가 직접 재배한 배추와 갖은 양념을 넣어 가족과 함께 담그고 이를 직접 갖고 가도록해 참가자들에게 높은 호응을 얻었다. 제주 "팜팜(Farm&amp;Family)버스" 프로그램은 도내 숨겨진 마을 관광명소를 발굴해 콘텐츠 개발 및 관광 상품화를 통한 질적 성장과 실질적인 마을 수익을 창출하고 이와 함께 마을 홍보효과 극대화 기반도 마련하기 위해 운영되고 있다.관계자는 "올해 6월부터 11월까지 총 8회에 걸처 시행된 프로그램 운영 결과를 토대로 내년에도 더 다양하고 특색적인 유·무형 콘텐츠를 발굴·개발한다"며 "또한 마을 관광상품 구축에 만전을 기해 관광객과 도민이 모두가 만족하는 제주 농산어촌 관광상품 브랜드 개발에 기여하겠다"고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회-日 나가사키국제관광협회, 비즈니스 협력마케팅 전개 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-日 나가사키국제관광협회, 비즈니스 협력마케팅 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회-日 나가사키국제관광협회, 비즈니스 협력마케팅 전개 기자명 고병수 기자 입력 2016.11.22 17:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주도와 제주도관광협회는 지난 18일부터 21일까지 일본 나가사키국제관광컨벤션협회와 레저 스포츠 관광객 유치를 위한 협력 비즈니스 마케팅을 추진했다고 22일 밝혔다.이에 20일 개최된 나가사키 베이사이드마라톤&amp;워크에 참가해 일본지역 고부가가치 FIT&amp;SIT 관광객 유치를 위한 맞춤형 제주관광 상품 홍보부스 운영과 함께 참가자 전원이 제주 홍보용  배너를 착용해 현장 로드홍보를 펼치기도 했다.또한 나가사키시 타우에 토미히사 시장 및 관계자와의 간담회에서 양 지역간의 스포츠 교류를 통한 관광객 확대와 지역 주민의 관광수익 체감도 향상을 위한 기관 및 민간단체와의 협력을 논의했다. 그리고 내년 개최되는 제주국제관광마라톤축제 참가와 함께 마라톤 뿐만 아니라 골프, 등반 등의 고부가가치 특수목적형 상품개발을 위한 노력 또한 함께 하기로 했다.도 관광협회 관계자는 "지난 시모노세키시 관계자와의 인적 및 협력 네트워크 구축에 이은 나가사키시 관계자와의 협력 마케팅을 통해 민간 스포츠 교류 활성화 및 큐슈지역 레저스포츠 관광객 유치를 위해 박차를 가하겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 환경영향평가서 보완 요구 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 오라관광단지 환경영향평가서 보완 요구 (제주=뉴스1) 고경호 기자					| 2016-11-04 13:51 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주오라관광단지 조감도. 2016.06.27/뉴스1 © News1 제주지역의 사상 최대규모 개발사업인 오라관광단지 조성사업에 제동이 걸렸다.제주특별자치도는 오라관광단지 개발사업에 대해 환경영향평가 심의위원회로부터 심의 결과를 제출받고 보완 요구를 사업자 측에 했다고 4일 밝혔다.제주도는 이번 보완 요구서를 통해 중산간의 지하수 보전과 오염방지를 위해 지하수 사용량을 최소화하고, 상수도와 중수도 등 다른 용수 사용계획 조정을 요구했다.또 기존 공공 하수처리장의 수용 능력이 포화상태임을 감안해 하수 및 폐기물의 전량 자체처리계획도 마련할 것을 주문했다.아울러 사업부지 내 휴양콘도시설의 적정수요량 재산정 및 조정 등 제주 미래비전에 보다 부합되는 방향으로 사업계획의 보완을 요구했다.이와 함께 오라관광단지 개발사업 승인과 관련해 투자 자본의 적격성 및 충실한 투자계획의 이행, 관광단지 사업 내용이 지역경제 및 제주관광에 미치는 영향을 비롯해 교통·경관영향 등 종합적인 것을 엄밀히 검토할 것도 주문했다.김양보 제주도 환경보전국장은 “이번 사업과 관련해 법과 원칙에 따라 제주미래비전에 입각한 엄격한 잣대를 적용해 나갈 계획”이라며 “어떠한 결론도 미리 전제함이 없이 법과 원칙에 입각해 엄격한 잣대로 도민들이 우려하는 문제들을 감안해 검토하고 있다”고 말했다.한편 중국계 자본인 JCC㈜가 추진 중인 오라관광단지 조성사업은 제주시 오라2동 일대 357만5753㎡ 부지에 오는 2021년까지 총 사업비 6조2800억원을 투자하는 제주지역 사상 최대 규모의 개발사업이다.주요 시설은 △초대형 컨벤션센터(7650석 규모) △5성급 호텔(2500실 규모) △분양형 콘도(1815실 규모) △면세백화점 및 명품빌리지 △글로벌 백화점 △실내형 테마파크 △워터파크 △골프장(18홀 규모) 등이다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 최대 카지노까지 중국 자본 유입…관광수익 재유출 우려 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 10℃ 자카르타 27.2℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도 최대 카지노까지 중국 자본 유입…관광수익 재유출 우려 오뚜기, 체다치즈에 마카로니 들어간 '맥앤치즈볼' 출시 한국타이어, 발달장애 학생 위한 '우리들의 숲 조성' 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 검색버튼 제주도 최대 카지노까지 중국 자본 유입…관광수익 재유출 우려 기사승인 2016. 11. 20. 21:06 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주도 내 중국인 여행 시장을 독점하고 있는 중국 뉴화청국제여행사가 제주도 최대규모의 카지노 사업까지 진출한다. 일각에서는 중국 자본이 여행업에 이어 카지노 사업에까지 유입되면서 관광수익이 중국으로 유출될 수 있다는 우려가 나오고 있다. 20일 금융감독원에 따르면 제주 신라호텔 카지노를 운영하고 있는 마제스타의 최대주주가 NHT컨소시엄으로 변경됐다. NHT컨소시엄은 제주도 내 중국인 전문 여행사인 뉴화청국제여행사가 50%를 출자하고 세미콘라이트와 제이스테판이 각각 25%를 출자했다. 총 출자금액은 1000억원이다.제이스테판의 자회사 엠제이아이는 현재 제주도의 옛 르네상스 호텔자리에 1만㎡ 규모의 카지노 건설을 추진중이다. 현재까지 제주도 최대 규모의 카지노 크기는 3000㎡수준으로 2018년 완공 후 제주도 최대 카지노로 등극할 전망이다.이번 인수로 인해 제주도에서 운영 중인 8개 카지노 중 6개 회사가 외국계 자본의 손으로 넘어갔다. 남은 2곳인 그랜드·롯데 카지노는 모두 파라다이스 그룹이 운영하고 있다.뉴화청국제여행사가 여행업에 이어 리조트·카지노 사업까지 진출하게 되면 여행객을 모집에서 부터 관광·숙박·기타여행까지 한번에 제공하며 여행 상품을 독점하는 구조를 형성하게 된다.제주도민들과 국내 관광업계는 제주도내 중국인 관광객 시장을 중국 자본이 장악하는 구조가 심화될 수 있다고 우려하고 있다현재 제주도 중국인 여행객 중 약 80%는 중국 여행사를 통해서 입국하고 있다. 그 중 뉴화청국제여행사가 90% 가량을 차지하며 연간 100만명에 달하는 중국인 관광객을 유치 중이다.제주도관광협회에 따르면 제주도를 찾는 중국인들은 11월 현재까지 275만명을 돌파하며 지난해 같은 기간의 195만4000명 대비 40.7％ 늘어나는 등 해마다 증가하고 있다. 하지만 관광 수익이 지역사회로 돌아가지 못하고 일부 대기업이나 중국 자본에 편중되고 있다는 지적이 나오고 있다. 지난달 윤관석 더불어민주당 의원은 제주도내 중국인이 보유한 토지는 9.8㎢(8058필지)에 달한다고 밝혔다. 전체 외국인 토지 중 43%에 달하는 수치다.특히 올해 상반기 기준 도내 숙박시설 1704건 중 93%인 1578건이 중국인 소유인 것으로 조사됐다. 중국 자본이 제주도 관광과 관련한 상품에 유입돼 실질적으로 면세점 판매를 제외하고는 수익이 제주도내로 들어오지 못하고 있다.윤 의원은 “제주도가 국제도시가 아닌 중국자본 도시가 될 수 있다는 우려가 큰 만큼, 제주의 문화와 가치를 지킬 수 있는 정책전환이 필요하다”고 밝혔다.업계 관계자도 “외국 자본이 여행업을 잠식한데 이어 카지노 사업까지 진출하면서 관광수익이 국외로 빠져나가는 현상이 심화될 것”이라며 “중국자본에 의한 대규모 투자 개발 사업으로 인한 토지 잠식, 자본 유출의 문제 해결을 위한 방인이 필요하다”고 설명했다. 장일환 기자 exia@asiatoday.co.kr 천정부지 제주 부동산, 매매가·임대수익 '껑충' 제주 토지 11월 법원경매 진행건수 91건…32개월만에 최다 3분기 지역경제 '제주·세종'이 이끌었다 ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 “시장 저평가 탈출할까”…목표주가에 못미친 종목들 주목 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 4 최영선, ‘리나 살라 갈로 피아노 콩쿠르’서 우승 “한국.. 5 kt, NC 5-2로 꺾고 준플레이오프 직행에 1승만 남.. 6 정동원x박지원, 훈훈한 케미…“‘러브 액츄얼리’로 만나.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 베트남 하노이에 홍보사무소…관광객 유치 본문 바로가기 이전 페이지 연합뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 연합뉴스 주요뉴스를 볼 수 있습니다. 보러가기 연합뉴스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 랭킹 제주도, 베트남 하노이에 홍보사무소…관광객 유치 입력2016.11.01. 오전 11:42 수정2016.11.01. 오후 12:02 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도청 [연합뉴스TV 제공](제주=연합뉴스) 김호천 기자 = 제주도는 이달 중 베트남 하노이에 제주관광홍보사무소를 개소한다고 1일 밝혔다. 도는 하노이 관광홍보사무소 개소 후 한국관광공사와 함께 현지 관광업계를 대상으로 제주관광설명회를 할 계획이다. 도와 제주관광공사, 제주컨벤션뷰로는 앞서 지난 3월 하노이에서 현지 5개 대형 여행사와 베트남 기업체 인센티브 관광객 유치를 위한 다자간 업무협약을 체결했다. 하노이는 다른 동남아 국가 시장과 달리 수도권 의존도가 낮아 현지인들에게 다양한 제주관광 상품을 제공할 수 있을 것으로 기대되고 있다. 올해 들어 지난 9월까지 제주를 찾은 베트남 관광객은 1만9천470명이다. 이승찬 도 관광국장은 "제주에 거주하는 외국인 중 베트남에서 온 결혼 이주 여성과 근로자가 가장 많다"며 "제주관광홍보사무소가 상호 교류와 관광산업 발전을 위한 중요한 역할을 할 것"이라고 기대했다. 제주도와 베트남 꽝닌성의 하롱베이는 2011년 말 세계 7대 자연경관에 선정됐으며, 2015년 10월 도와 꽝닌성은 관광 교류 협약을 체결하기도 했다. 도는 1999년 중국 베이징에 제주관광홍보사무소를 개소한 이후에 현재까지 중국에 5개소, 일본에 4개소, 대만과 말레이시아에 각각 1개소씩 모두 11개소의 관광홍보사무소를 개소해 운영하고 있다. khc@yna.co.kr 김호천 Copyright ⓒ 연합뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회, 생활 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 구치소 독방 갇힌 최순실…'실세'에서 혼자 설거지하는 신세 박태환도 '정유라 밀어주기' 희생양…스포츠 4대악 무리한 추진 '최순실 출석' 검찰청사에 오물 투척한 남성 잡고보니… 대검청사에 포클레인 돌진…"최순실 죽는 것 도와주러 왔다" MLB 투수 다르빗슈, 애 딸린 6살 연상 레슬러와 혼인 신고 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 연합뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 연합뉴스 헤드라인 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 잠실 등 2020년보다 1억∼2억원 떨어져…'임대차2법' 상승분 반납해 "급전세도 안 나가"…기존 세입자도 가격 낮춰 계약, 보증금 내줘 금리 인상에 전세시장 약세 지속 전망…전문가 "임차인 피해 대비해야" (서울= 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 이재명 부대변인 "文정부 때 약속한 사항…친일 프레임 의아" 대통령실은 11일 한미일 동해 합동 훈련과 관련, "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"라고 말했다. 대통령실 이재명 부대변 이준석 2차 소환조사…증거인멸·무고 혐의 조만간 결론 경찰 "추가조사·대질신문 없이 곧 마무리" 경찰이 성상납 의혹과 관련한 증거인멸·무고 혐의로 수사 중인 국민의힘 이준석(37) 전 대표를 두 번째로 불러 조사했다. 서울경찰청 관계자는 11일 "이 전 대표를 지난 8 서울서 50대 권총에 맞아…"극단적 선택 추정"(종합) 경찰 "총기번호 부여된 38구경 권총…소지 경위 조사" 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞은 채로 발견돼 병원으로 이송됐다. A씨는 현재 수술 중으 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 도로에 차 세워두고 잠들어…경찰, 절도 혐의도 수사 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 음주측정을 거부하다가 현행범으로 체포됐다. 경찰은 신씨가 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 "세제 제품따라 1회 세탁비용 최대 14배차…세척력도 제각각" 시중에 유통되는 의류용 중성세제 제품의 세척력, 이염 방지 정도, 1회 세탁비용이 차이가 매우 큰 것으로 나타났다. 한국소비자원은 의류용 중성세제 8개 제품을 시험한 결과를 11일 발표했다. 시험대상 제품은 이마트, 이전 뉴스들 보기 3 다음 뉴스들 보기 연합뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 연합뉴스 헤드라인 더보기 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 5시간전 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 2시간전 이준석 2차 소환조사…증거인멸·무고 혐의 조만간 결론 19분전 서울서 50대 권총에 맞아…"극단적 선택 추정"(종합) 18분전 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 4시간전 "세제 제품따라 1회 세탁비용 최대 14배차…세척력도 제각각" 19분전 연합뉴스 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 3시간전 2 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 6시간전 3 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 4시간전 4 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 5시간전 5 놀이터에 떨어진 미사일, 아찔했던 순간…다시 일상 깨진 키이우 1시간전 1 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 4시간전 2 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 3시간전 3 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 2시간전 4 野 "여가부, 폐지 아닌 확대 필요"…정부조직개편안에 공식 반대 1시간전 5 이재명 "종북몰이·색깔론, 해방 후 친일파 행태와 다를바 없어" 56분전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” “우리를 (중국으로부터) 지켜주는 것은 미국의 무기가 아니라 이 반도체 공장들입니다.” 지난달 27일(현지 시간) 대만 타이베이에서 버스로 한 시간가량 떨어진 신주과학단지에서 만난 천수주(陳淑珠) 과학단지 부국장은 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 [속보] 신종마약 '야바' 유통한 불법체류 태국인 65명 무더기 검거 시가 5억원 상당의 신종 마약인 야바와 필로폰을 전국적으로 유통시킨 불법체류자 신분의 태국인 65명이 무더기 검거됐다. 강원경찰청 마약범죄수사대는 태국국적의 A(34)씨 등 14명을 구속하고 불법체류자 49명을 검거 "주택대출 안 갚겠다" 뿔난 서민들…무너지는 중국 부동산 중국 경제의 핵심 축인 부동산산업에 경고음이 울리고 있다. 오는 16일 개막하는 중국 공산당 전국대표대회(당대회)에서 지도부가 어떤 대응책을 내놓을지 주목된다. 10일 시장정보 업체 중국부동산정보(CRIC)에 따르면 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 “아들 전장에” 초고속 승진 푸틴 측근, 이번엔 명품 샌드백 자랑 블라디미르 푸틴 러시아 대통령 최측근으로 분류되는 람잔 카디로프 체첸 자치공화국 수장이 최근 집무실에 2억원 상당의 명품 샌드백 등을 설치해 부를 과시했다는 주장이 나왔다. 벨라루스 매체 넥스타는 최근 트위터 계정을 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 #중국 반도체 숨통 조이기 # 다시 나타난 김정은 #푸틴의 굴욕 #친일국방 vs 죽창가 업클 유료 금일 칼럼 신PD 지식사업연구소 유료 50조 식자재 유통시장 '디지털 혁신' 이끄는 스타트업들…푸드팡·마켓보로·스포카 IPO뉴스 유료 예스코홀딩스 C레벨의 잇단 자사주 매입...주가 부양 효과는 언제쯤? thebellstock 유료 10/11 오늘의 주요 증시 일정 리치언니 투자노트 유료 챔피온 x 삼성역 코엑스 놀거리 에슬레틱 최강브랜드 인정 패션&amp;리빙매거진 워럽 유료 [뉴욕시그널] 모건스탠리: 일의 미래를 주도할 핵심기업 더밀크 유료 교육 뉴스 브리핑 - 2022.10.07 학종 전공별 탐구 주제 유료 🐰💌 누가 진정한 빌런인가? 레빗구미의영화이야기 유료 노르웨이에서 또 다시 발생한 총기난사 사건 텀크루즈 돈되는 경제뉴스 해설 - 투자는 네이버로 투기는 카카오로 내 자산에 도움이 되는 경제뉴스 해설 유료 북한 미사일발사에 일본 충격 corescience 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 연합뉴스 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도, 상가관광지 부지 되산다 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 상가관광지 부지 되산다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 상가관광지 부지 되산다 기자명 조문호 기자 입력 2016.11.15 23:26 수정 2016.11.15 23:28 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 15일 공유재산심의위원회 회의 원안 의결추정가 115억…대신 어음리 비축토지 매도 [제주도민일보DB] 상가관광지 개발사업 조감도.제주도가 개발에 제동을 걸었던 제주시 애월읍 상가관광지 개발사업이 해피엔딩으로 끝을 맺었다.제주도 공유재산심의위원회는 15일 상가관광지 조성사업 부지 4필지 18만8922㎡의 매입 안건을 원안 의결했다.이로써 지난해 도가 환경보전과 중산간 난개발 방지를 이유로 사업을 반려시킨 뒤 1년여 간 협상이 일단락됐다.부지 매입 추정가는 115억원이다. 도는 대신 어음리의 비축토지를 사업자에게 되팔기로 했다.이로써 원 지사의 ‘중산간 개발 가이드라인’의 상징이 된 상가관광지 문제는 해결됐지만, 오라관광단지 개발사업을 둘러싼 논쟁이라는 더 큰 문제가 남은 상황이다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>증가하는 제주도 서귀포 관광객, 중문 독채 펜션 선호 &lt; 전기문화 &lt; 기사본문 - 전기신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:51 (화) 월간 전기설비 더라이팅 에릭인사이트 로그인 회원가입 스크랩마스터 전체메뉴 버튼 에너지Biz 전력 원자력 신재생 에너지신산업 오일∙가스 석유∙화학 집단에너지 로컬 월드뉴스 전기경제 기업∙CEO 산업정책 스마트+ 전기차 가전∙통신 시험인증 시공∙안전 전기공사 안전∙소방 전기기술 국토정책 건설∙SOC 철도 전기웹툰 피플 파워인터뷰 화제의 인물 인사∙동정∙부고 오피니언 사설 등촌광장 월요객석 금요아침 데스크시선 기자의눈 김상철의 월드뷰 독자투고 전문가 칼럼 e-단독 구독 제보하기 facebook youtube kakao e-mail post mobile 검색버튼 상세검색 기사검색 검색 본문영역 현재위치 홈 전기문화 증가하는 제주도 서귀포 관광객, 중문 독채 펜션 선호 이전 기사보기 다음 기사보기 기자명 온라인뉴스팀 입력 2016.11.21 15:26 댓글 0 SNS 기사보내기 기사저장 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 제주특별자치도관광협회에 따르면 올 9월까지 제주도 방문객수가 135만 명을 기록했다. 이는 전년 동월 대비 10.3% 증가한 수치다. 방문객중 ‘휴양 및 관람’을 하기 위해 방문한 이들이 75만여 명으로 가장 많았으며, 다음으로는 ‘친지방문’, ‘회의 및 업무’, ‘레저스포츠’ 등이 그 뒤를 이었다. 또한 최근 제주도를 방문하는 여행객들은 다양한 자연을 느낄 수 있는 게스트하우스나 제주도펜션 숙박을 선호하는 것으로 조사됐다. 특히 최근 바다와 인접한 독채형 펜션이나 게스트하우스 등의 이용객이 늘었는데, 이는 독립적인 공간으로 여행객들의 편의를 도모하고 조용하고 편안한 휴식이 가능하기 때문으로 보여진다. 그 중 제주도 서귀포에 위치한 ‘풀향기휴양펜션’은 친환경 원목소재인 삼나무로 지어져 쾌적함을 느낄 수 있다. 선호도 높은 복층형 독채형펜션으로 마라도와 가파도, 송악산이 보이는 우수한 바다 조망권을 누릴 수 있어 연인이나 친구, 가족단위의 개인 관광객이 주를 이룬다. 해당 서귀포펜션 객실 내부에는 간단한 취사가 가능한 압력밥솥과 식기가 마련돼있고 펜션 숙박 시 농장체험과 넓은 잔디마당, 개별 바비큐장을 이용할수 있는 장점이 있다. 뿐만 아니라 인근 10분 거리에 중문관광단지를 비롯해 3분 거리에 안덕계곡, 15분 거리에 산방산이 위치해있으며, 올레길 7, 8, 9코스와 주상절리, 천제연폭포 등과도 가까워 편리한 여행동선을 짤 수 있는 것이 특징이다. 아울러 제주도 서귀포 ‘풀향기휴양펜션’은 현재 네이버펜션을 통해 예약할 시 커플 2인 이상 및 가족단위 7인 숙박 시 30% 행사를 진행하고 있으며, 이와 더불어 렌터카 및 탄산온천입장료 30% 할인권이 포함된 각종 관광지 할인쿠폰을 제공 중이다. 제주도 중문펜션 ‘풀향기휴양펜션’ 측은 “추워지는 날씨로 따뜻한 남쪽에 있는 제주도 관광객이 늘어남에 따라 서귀포 펜션 예약률이 증가했다”며, “이는 다양한 관광지 할인쿠폰을 통해 숙박과 관광을 동시에 즐길 수 있는 좋은 기회가 될 것이다”라고 전했다. 온라인뉴스팀 news@electimes.com 기자의 다른기사 저작권자 © 전기신문 무단전재 및 재배포 금지 이 시각 추천뉴스 미서 불붙는 ESG경영 회의론...韓,국민연금 ESG투자 의무화 반발 원전 4.8GW 추가로 혼돈에 빠진 동해안 전력망 말레이시아 LNG 공급사 '불가항력' 선언...한국에도 '적색경보' 울려 동해안 수도권 잇는 전력 고속도로 사업 본격 시작 KCL, ‘ESG경영 및 친환경포장’ 확대 위한 다자간 업무협약 국내 해상풍력 활성화 기미 안보인다…위기감 확산 포스코-GS, 배터리 합작사 설립…재활용, BaaS 추진 미서 불붙는 ESG경영 회의론...韓,국민연금 ESG투자 의무화 반발 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 주요기사 유럽 가스재고율 개전 이후 최고…LNG가격 뚝↓ 발전공기업은 지금 연료 리스크와 전쟁 중 미서 불붙는 ESG경영 회의론...韓,국민연금 ESG투자 의무화 반발 탄소중립 시대의 전력시장 운영 대책은? 야당 의원 ‘원전 확대만 힘주고, 인허가는 소홀’ 집중 질타 불만 나면 전기차?...우리나라 전기차 화재 대응 현주소는 최신뉴스 슈나이더, '이지 시리즈' 자동화 제품군 온라인몰 판매 강화 유럽 가스재고율 개전 이후 최고…LNG가격 뚝↓ 양금희 의원 "공공기관 탄소중립 R&amp;D 중 72% 경제적 성과 없어" 정승일 한전 사장 "세계 최고 수준 에너지플랫폼 기업으로 성장할 것" 민관, 美 인플레 감축법 세액공제 대응방안 모색 포토뉴스 슈나이더, '이지 시리즈' 자동화 제품군 온라인몰 판매 강화 유럽 가스재고율 개전 이후 최고…LNG가격 뚝↓ 양금희 의원 "공공기관 탄소중립 R&amp;D 중 72% 경제적 성과 없어" 정승일 한전 사장 "세계 최고 수준 에너지플랫폼 기업으로 성장할 것" 민관, 美 인플레 감축법 세액공제 대응방안 모색 인기뉴스 1 미서 불붙는 ESG경영 회의론...韓,국민연금 ESG투자 의무화 반발 2 원전 4.8GW 추가로 혼돈에 빠진 동해안 전력망 3 말레이시아 LNG 공급사 '불가항력' 선언...한국에도 '적색경보' 울려 4 구자근 의원 "신재생 발전 8, 9차 전력수급계획에 역행" 5 산업부 소관 기관, SNS 홍보에 3년간 151억 투입해 하단영역 하단메뉴 회사소개 기사제보 광고문의 뉴스레터 신청 이용약관 개인정보처리방침 청소년보호정책 (책임자 : 최영옥) 저작권보호정책 이메일무단수집거부 사고 매체정보 제호 : 전기신문 법인명 : (주)한국전기신문사 서울특별시 강서구 공항대로59가길 8 대표전화 : 043-711-4400 팩스 : 043-711-4419 등록번호 : 서울 아 00149 법인명 : (주)한국전기신문사 발행·편집인 : 이홍우 발행일자 : 주 3회 발행(월, 수, 금) 등록일 : 2005-12-19 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. Copyright © 2022 전기신문. All rights reserved. mail to yunji@electimes.com 위로 전체메뉴 전체기사 에너지Biz 전체 전력 원자력 신재생 에너지신산업 오일∙가스 석유∙화학 집단에너지 로컬 월드뉴스 전기경제 전체 기업∙CEO 산업정책 스마트+ 전기차 가전∙통신 시험인증 시공∙안전 전체 전기공사 안전∙소방 전기기술 국토정책 건설∙SOC 철도 전기웹툰 피플 전체 파워인터뷰 화제의 인물 인사∙동정∙부고 오피니언 전체 사설 등촌광장 월요객석 금요아침 데스크시선 기자의눈 김상철의 월드뷰 독자투고 전문가 칼럼 e-단독 e-게임 전기문화 전체 라이프ㆍ영화 공연·회화 세무·건강 Today's issue 전기신문 2022 국정감사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도, '오라관광단지 개발 추진' 원칙 지켜라" 본문 바로가기 이전 페이지 뉴스1 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 뉴스1 주요뉴스를 볼 수 있습니다. 보러가기 뉴스1 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 IT 사설/칼럼 랭킹 "제주도, '오라관광단지 개발 추진' 원칙 지켜라" 입력2016.11.03. 오전 10:52 수정2016.11.03. 오전 10:53 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 3일 오전 제주도의회 도민의방에서 제주시 오라동·오등동 발전협의회가 기자회견을 갖고 오라관광단지 개발사업의 차질 없는 추진을 촉구하고 있다.2016.11.3./뉴스1 © News1 오미란 기자(제주=뉴스1) 오미란 기자 = 원희룡 제주도지사가 최근 "제주도민 대다수가 반대하면 오라관광단지 개발사업에 허가를 내주지 않을 수도 있다"고 발언한 것과 관련해 제주시 오라동·오등동 주민들이 이를 규탄하고 나섰다.제주시 오라동·오등동 발전협의회는 3일 오전 제주도의회 도민의방에서 기자회견을 갖고 "제주도정은 지역주민의 염원사업인 오라관광단지 개발사업을 법과 원칙에 맞게 흔들림 없이 이행하라"고 촉구했다.이 단체는 원 지사의 관련 발언에 대해 "제주도민들을 선동하는 이야기"라며 "제주도정을 책임지고, 각종 사업에 대한 인·허가권을 갖고 있는 제주도지사가 그런 발언을 한다는 것이 참 의구스럽다"고 말했다.최근 제주시민사회단체연대회의가 제주도를 상대로 오라관광단지 개발사업 정책토론 청구 서명운동에 돌입한 데 대해서도 "법과 원칙에 위배되는 사안"이라며, "제주발전을 저해하는 단체는 해체돼야 한다"고 강도 높은 발언을 이어갔다.이 단체는 "그동안 오라관광단지 개발사업은 법적 절차에 따라 아무런 하자 없이 순리대로 진행돼 왔다"며 "주민을 떠나 제주도민사회에도 사업 추진에 대한 공감대가 형성돼 있다고 본다"며 사업의 차질 없는 추진을 거듭 주문했다. 3일 오전 제주도 정무부지사 집무실에서 박연호 제주시 오라동 발전협의회장(왼쪽)과 김방훈 제주도 정무부지사가 면담을 갖고 있다.2016.11.3./뉴스1 © News1 오미란 기자이 단체는 기자회견에 앞서 원희룡 제주도지사에게 항의서한을 전달하기 위해 제주도청사에 진입하려고 했으나 불발되자 대표단을 구성, 김방훈 제주도 정무부지사와 면담을 갖고 오라관광단지 개발사업에 대한 원 지사의 결단을 거듭 촉구했다.이에 김방훈 제주도 정부무지사는 "일자리 창출과 경제적 측면에서 여러가지 사안을 고려하고 있다"며 "법과 원칙에 어긋나지 않는 범위에서 절차를 이행하겠다"고 밝혔다.mro1225@news1.kr▶ 매일 업데이트 최신 만화 100% 무료[© 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지] 오미란 기자(mro1225@news1.kr) Copyright ⓒ 뉴스1. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. '최순실의혹' 변명논란 이규혁…동생은 음주측정거부 '유죄' 이광종 "정유라 때문에 승마 국가대표 선발규정 바꿨다" 헐크 호건 섹스영상 공개한 대가?…354억 합의금 40대 불치병 환자, 4개월만에 야산서 백골시신으로 "군대 안 가려고…" 온몸에 문신 새긴 20대 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 뉴스1 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 뉴스1 헤드라인 법사위, 감사원 국감 파행…野, 국토위서 '감사원장' 증인 요구(종합) 정재민 최동현 이균진 기자 = 여야가 감사원을 두고 출동했다. 법제사법위원회는 여야의 신경전으로 국정감사를 시작한 지 8분 만에 감사 중지를 선언했고, 국토교통위원회에서는 최재해 감사원장을 국정감사 증인으로 채택해야 '푸틴 동원령' 러시아 난민들…8명 탄 보트, 韓 동해에도 왔다 블라디미르 푸틴 러시아 대통령이 쏘아 올린 '예비군 30만명 동원령'에 국외 탈출 열풍이 지속되는 가운데 10일(현지시간) 최근 자전거, 요트 등 이색 수단으로 탈출한 사람들이 늘고 있어 화제가 되고 있다. 영국 공 尹, 한일 군사협력 논란에 "핵위협 앞에 우려가 정당화될 수 있나" 김일창 유새슬 기자 = 윤석열 대통령은 11일 "북핵 위협이 날로 심각해지고 있다"며 "저는 누누이 강조했지만 굳건한 한미동맹과 한미일 안보협력을 바탕으로 아주 견고한 대응체제를 구축해서 잘 대비, 대응해 나가겠다" “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 그룹 신화의 멤버 신혜성이 도난 신고된 자동차에서 음주측정을 거부하다 현행범으로 체포됐다. 서울 송파경찰서는 신씨를 도로교통법상 음주측정거부와 절도 혐의로 체포해 조사 중이라고 11일 밝혔다. 신씨는 이날 새벽 1시 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 배우 선우은숙(63)이 아나운서 유영재(59)와 결혼했다. 11일 소속사 스타잇엔터테인먼트 측은 "선우은숙씨가 좋은 인연을 만나 결혼이라는 사랑의 결실을 맺게 됐다"라고 밝혔다. 소속사 측은 "상대는 아나운서 유영재 이전 뉴스들 보기 3 다음 뉴스들 보기 뉴스1이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 뉴스1 헤드라인 더보기 법사위, 감사원 국감 파행…野, 국토위서 '감사원장' 증인 요구(종합) 1시간전 '푸틴 동원령' 러시아 난민들…8명 탄 보트, 韓 동해에도 왔다 41분전 尹, 한일 군사협력 논란에 "핵위협 앞에 우려가 정당화될 수 있나" 3시간전 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 6시간전 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 2시간전 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 3시간전 뉴스1 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 3시간전 2 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 2시간전 3 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 6시간전 4 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 거짓말" 5시간전 5 安 "총선 승리가 지상목표" vs 金 "대선 불출마 기대"…신경전 '가열' 2시간전 1 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 거짓말" 5시간전 2 '60대' 선우은숙, 4살 연하 유영재 아나운서와 결혼…"혼인신고 마쳤다" 3시간전 3 尹, 한일 군사협력 논란에 "핵위협 앞에 우려가 정당화될 수 있나" 3시간전 4 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 6시간전 5 신혜성, 도난차량서 음주측정 거부하다 현행범 체포 2시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) “아들 전장에” 초고속 승진 푸틴 측근, 이번엔 명품 샌드백 자랑 블라디미르 푸틴 러시아 대통령 최측근으로 분류되는 람잔 카디로프 체첸 자치공화국 수장이 최근 집무실에 2억원 상당의 명품 샌드백 등을 설치해 부를 과시했다는 주장이 나왔다. 벨라루스 매체 넥스타는 최근 트위터 계정을 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 [속보] 신종마약 '야바' 유통한 불법체류 태국인 65명 무더기 검거 시가 5억원 상당의 신종 마약인 야바와 필로폰을 전국적으로 유통시킨 불법체류자 신분의 태국인 65명이 무더기 검거됐다. 강원경찰청 마약범죄수사대는 태국국적의 A(34)씨 등 14명을 구속하고 불법체류자 49명을 검거 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 #중국 반도체 숨통 조이기 # 다시 나타난 김정은 #푸틴의 굴욕 #친일국방 vs 죽창가 업클 유료 금일 칼럼 신PD 지식사업연구소 유료 50조 식자재 유통시장 '디지털 혁신' 이끄는 스타트업들…푸드팡·마켓보로·스포카 IPO뉴스 유료 예스코홀딩스 C레벨의 잇단 자사주 매입...주가 부양 효과는 언제쯤? thebellstock 유료 10/11 오늘의 주요 증시 일정 리치언니 투자노트 유료 챔피온 x 삼성역 코엑스 놀거리 에슬레틱 최강브랜드 인정 패션&amp;리빙매거진 워럽 유료 [뉴욕시그널] 모건스탠리: 일의 미래를 주도할 핵심기업 더밀크 유료 교육 뉴스 브리핑 - 2022.10.07 학종 전공별 탐구 주제 유료 🐰💌 누가 진정한 빌런인가? 레빗구미의영화이야기 유료 노르웨이에서 또 다시 발생한 총기난사 사건 텀크루즈 돈되는 경제뉴스 해설 - 투자는 네이버로 투기는 카카오로 내 자산에 도움이 되는 경제뉴스 해설 유료 북한 미사일발사에 일본 충격 corescience 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 뉴스1 예 아니오</t>
+  </si>
+  <si>
+    <t>오라 관광단지 개발은 제주도의 재앙 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 오라 관광단지 개발은 제주도의 재앙 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 오피니언 기고 오라 관광단지 개발은 제주도의 재앙 양시경 headlinejeju@headlinejeju.co.kr 승인 2016.11.14 11:00 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [기고] 양시경 / 제주경실련 공익지원센터장 ▲ 양시경 / 제주경실련 공익지원센터장. ⓒ헤드라인제주 지난 11월 9일 오라 관광단지 개발을 추진하는 중국개발사업자가 오라 관광단지를 제대로 개발하면 평당 1000만원도 될 수 있다고 자신 있게 말했다.필자는 오라 관광단지 개발지역에 편입된 7필지 20만9752평의 토지거래가격을 조사해봤다. 중국기업이 2015년 1월에 평당 4만9141원에 매입했다. 오라 공동목장이었던 이 토지가 여러 사람과 기업의 손을 거쳐서 중국기업에 넘어간 이후 1년이 지나서 관광단지개발 인허가가 된 후에 평당 1000만원이 된다면 무려 203배의 개발이익이 발생한다. 이것은 소설도 드라마도 아니다. 제주도 오라동에서 일어날 수 있는 현실이다. 토지 가격이 급등하기 시작한 2015년에 평당 4만9141원에 거래되었다는 것은 사실상 개발행위가 어려운 토지임을 말해준다.일반 국민은 개발행위가 사실상 불가능한 토지를 외국인투자유치라는 미명하에 중국기업에게는 상업지역 등으로 개발이 가능해진다면 평당 1000만원의 가치를 가질 수 있다고 본다. 오라 관광단지 개발계획에 숙박시설이 4312실이 공급 된다. 제주도 산하연구기관인 제주발전연구원은 2018년 제주도내 관광호텔이 4,330실 이상 과잉공급 될 수 있다고 진단하고 있다. 어떻게 된 것이 제주도 산하에 연구기관이 숙박시설이 과잉 공급되어 문제가 크다고 연구결과를 발표해도 제주도지사는 오라 관광단지 개발계획에 숙박시설 4312실을 인가해 줄려고 강력하게 추진하고 있다. 이것은 제주도지사가 제주도 숙박업자들을 모두 망하게 만들기 위해 광분했다고 볼 수 있다.불과 10년 전만 해도 숙박시설이 부족해서 숙박시설공급이 절실히 필요했다. 그러나 지금은 숙박시설이 과잉 공급 되어 줄여나가야 할 입장인데도 거꾸로 자연생태계를 무참하게 파괴하면서까지 숙박시설공급을 대폭 늘여나가겠다는 것은 이해할 수 없다. 오라 관광단지 개발에 대규모 쇼핑센터와 회의시설, 골프장시설계획 역시 기존업자와 영세자영업자들이 생존을 위협하는 개발계획이다.탑동매립개발을 추진할 당시에 장병구 제주도지사는 아직도 중문단지와 시외곽지에 개발할 토지가 많은데 바다를 매립해가면서까지 탑동매립을 할 필요성이 없다고 피력하며 탑동매립개발을 반대하였다. 관선지사인 장병구 도지사는 중앙에 눈치를 보지 않고, 제주도발전을 위해 소신껏 일했다. 그러나 제주도민의 손에 선출된 원희룡지사는 제주도민 다수의 여론을 무시하고 자연생태계를 심각하게 파괴하며, 영세자영업자의 생존을 어렵게 만드는 오라 관광단지 개발을 무리하게 추진하고 있다. 제주도민 여론을 묵살하고 무리하게 강행하면 엄청난 제주도민의 저항에 크나큰 어려움을 겪을 것이다, 오라 관광단지 개발계획은 시대에 역행하는 개발계획이다. 친환경적인 승마체험장 등 새롭게 개발계획이 짜여 져야 한다. 오라동 일부 주민들은 "하늘이 준 기회이다. 오라 관광단지 조속히 절차를 이행하라!" 주장한다. 나는 이렇게 주장하고 싶다. "오라 관광단지 개발은 제주도의 재앙이다. 반드시 철회되어야 한다."&lt;양시경 / 제주경실련 공익지원센터장 &gt;*이 글은 헤드라인제주의 편집방향과 다를 수 있습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 양시경 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 같은의견 2016-11-15 13:45:49 | 175.***.***.2 더보기 삭제하기 수정하기 같은의견입니다 답글쓰기 2 0 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>더민주 제주도당 "원희룡 지사, 오라관광단지 입장 분명히 밝혀야" 본문 바로가기 이전 페이지 뉴시스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 뉴시스 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 IT 사설/칼럼 랭킹 더민주 제주도당 "원희룡 지사, 오라관광단지 입장 분명히 밝혀야" 입력2016.11.03. 오후 1:33 수정2016.11.03. 오후 1:34 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 【제주=뉴시스】장재혁 기자 = 더불어민주당 제주도당은 3일 "원희룡 제주도지사는 오라관광단지 조성사업 관련 책임을 회피하려는 전형적인 떠넘기기 태도를 보이고 있다"고 비판했다.더민주 제주도당은 이날 보도자료를 통해 "이번 제주도의회 행정사무감사에서도 오라단지 개발은 또 한 번 큰 논란을 겪었고, 시민단체들도 사업의 문제점을 지속적으로 제기하고 있을 뿐 아니라, 한 언론사 조사에 따르면 도내 오피니언의 절반 이상이 사업 중단을 요구할 만큼 도민사회 여론은 오라단지 개발에 호의적이지 않다"고 강조했다.이어 "석연찮은 환경영향평가 절차, 수십만평 고(高)고도 부지가 사전 타당성 검토조차 없이 추가된 점, 불법 논란이 일고 있는 지하수 관정 사용 문제, 2014년 개발가이드라인의 취지에 제대로 부합하지 않는 골프장, 대규모 호텔, 콘도 등 숙박시설 위주의 개발계획 등에 대한 의문은 여전히 해소되지 않고 있다"고 주장했다.제주도당은 "이런 가운데 최근 원희룡 지사는 대학생들과의 토크콘서트 자리에서 '제주도민 다수가 반대하면 오라단지를 불허할 수도 있다'는 요지의 발언을 했다"며 "이는 논란에 휩싸인 오라단지 사업에 대해 책임을 회피하려는 전형적인 떠넘기기의 태도를 드러낸 것"이라고 비판했다.제주도당은 "원 지사의 모습은 도정 최고 책임자로서의 어떤 철학이나 입장보다는 법절차적 정당성과 여론에만 의존하려는 매우 무책임한 것"이라며 "원 지사는 지금이라도 오라단지 사업과 관련해 입장을 분명히 하고 도민과의 적극적인 소통에 나서야 한다"고 지적했다.jjhyej@newsis.com뉴시스 뉴스, 네이버 뉴스 스탠드에서도 만나세요뉴시스 SNS [페이스북] [트위터]&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt; 장재혁 Copyright ⓒ 뉴시스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 5공실세 "朴대통령, 최태민의 정신적 포로" 대통령 최측근 ´최순실 폭탄´ 떠넘기기 ´최순실 게이트´ 수사 종착역은 박근혜 대통령 ´앳된 남녀 등장 음란 애니´ 두고 법원 판단 엇갈려 조윤선-정유라, 함께 찍은 단체사진 ´구설´ 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 뉴시스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 뉴시스 헤드라인 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 기사내용 요약 극단적 선택 시도…병원서 수술 중 경찰 "총기 소지 경로 확인 예정" [서울=뉴시스]임하은 기자 = 11일 오전 서울 서초구에서 총기 사건이 발생해 경찰이 수사에 착수했다. 경찰에 따르면 서울 서초경찰 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 기사내용 요약 10월10일 설악산 첫눈…지지난해보다 24일 빨라 몽골서 찬공기 춤고 남하한 '절리저기압' 영향 계절 상식 바뀌나…8월 폭우에 '장마' 변화 모색 '가을 태풍' 영향에 1973년 이래 가장 더운 9월 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 기사내용 요약 경찰, 지난 8일 자정 넘은 시간까지 조사 이준석 무고·증거인멸 교사 의혹 등 수사 경찰 "추가 소환은 없을 듯…조만간 결론" [서울=뉴시스] 이준호 기자 = 이준석 전 국민의힘 대표의 증거인멸교사와 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 기사내용 요약 예방적 살처분만 34만여 마리…초동방역 개선해야 보상금만 1384억…윤준병 "명확한 기준·심의 필요" [서울=뉴시스]이수정 기자 = 최근 경기 김포·파주 지역에서 아프리카돼지열병(ASF)이 잇따라 발생 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 래퍼 언에듀케이티드 키드(25·김성우)가 대학 축제 도중 관객석으로 다이빙하다 추락했다. 언에듀케이티드 키드는 8일 인스타그램에 "나 대학교에 공연하러 가는 거 아니야 서커스 하러 가는 거야"라는 글과 함께 영상을 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 기사내용 요약 도로 한 복판서 잠들어…경찰 "엄정 수사 중" 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경 이전 뉴스들 보기 3 다음 뉴스들 보기 뉴시스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 뉴시스 헤드라인 더보기 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 16분전 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 16분전 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 21분전 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 24분전 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 1시간전 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3시간전 뉴시스 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 1시간전 2 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6시간전 3 [속보]尹 "文정부 폐지한 '학업성취도평가' 희망시 모두 참여" 1시간전 4 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3시간전 5 [단독]대한항공, 스마트워크 도입…승무원 전원에 태블릿PC 지급 1시간전 1 [속보]尹 "국민들 北위협 걱정 말고 경제활동·생업 전력하시길" 3시간전 2 나경원 "유승민, 尹비판 과하다…자해행위 돼선 안 돼" 3시간전 3 [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 3시간전 4 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 1시간전 5 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "신혜성, 상습 음주운전…자숙 땐 억대 원정도박" 과거 재조명 그룹 신화의 신혜성이 음주 측정을 거부하다 현행범으로 체포되면서 과거 사고도 재조명되고 있다. 음주 운전 상습범이라는 지적도 나오고 있다. 신혜성은 2007년 서울 압구정동에서 삼성동까지 음주 운전을 하다 적발됐다. [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 최재해 감사원장이 ‘감사원은 대통령 국정운영을 지원하는 기관’이라는 국회 발언 등에 대한 설명을 요구하는 감사원 직원들의 면담 요구를 거부한 것으로 확인됐다. 이런 사실은 감사원 직원이 감사원 운영방식을 비판하는 취 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% ‘윤석열차’ 숨은 그림 찾아봐…구둣발·한동훈·여가부 다 있어 고등학생이 그린 윤석열 대통령 풍자 만화 &lt;윤석열차&gt;의 ‘깨알 디테일’이 화제다. 이 그림에 대한 정부의 대응이 ‘표현의 자유’ 논란을 불러일으키면서 파장이 정치권까지 확산하자 누리꾼들이 이 그림에 꼭꼭 숨어 있는 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 [속보] 신종마약 '야바' 유통한 불법체류 태국인 65명 무더기 검거 시가 5억원 상당의 신종 마약인 야바와 필로폰을 전국적으로 유통시킨 불법체류자 신분의 태국인 65명이 무더기 검거됐다. 강원경찰청 마약범죄수사대는 태국국적의 A(34)씨 등 14명을 구속하고 불법체류자 49명을 검거 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” “우리를 (중국으로부터) 지켜주는 것은 미국의 무기가 아니라 이 반도체 공장들입니다.” 지난달 27일(현지 시간) 대만 타이베이에서 버스로 한 시간가량 떨어진 신주과학단지에서 만난 천수주(陳淑珠) 과학단지 부국장은 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 #중국 반도체 숨통 조이기 # 다시 나타난 김정은 #푸틴의 굴욕 #친일국방 vs 죽창가 업클 유료 금일 칼럼 신PD 지식사업연구소 유료 50조 식자재 유통시장 '디지털 혁신' 이끄는 스타트업들…푸드팡·마켓보로·스포카 IPO뉴스 유료 예스코홀딩스 C레벨의 잇단 자사주 매입...주가 부양 효과는 언제쯤? thebellstock 유료 10/11 오늘의 주요 증시 일정 리치언니 투자노트 유료 챔피온 x 삼성역 코엑스 놀거리 에슬레틱 최강브랜드 인정 패션&amp;리빙매거진 워럽 유료 [뉴욕시그널] 모건스탠리: 일의 미래를 주도할 핵심기업 더밀크 유료 교육 뉴스 브리핑 - 2022.10.07 학종 전공별 탐구 주제 유료 🐰💌 누가 진정한 빌런인가? 레빗구미의영화이야기 유료 노르웨이에서 또 다시 발생한 총기난사 사건 텀크루즈 돈되는 경제뉴스 해설 - 투자는 네이버로 투기는 카카오로 내 자산에 도움이 되는 경제뉴스 해설 유료 북한 미사일발사에 일본 충격 corescience 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 뉴시스 예 아니오</t>
+  </si>
+  <si>
+    <t>"11월 제주도, 한라산 단풍 관광이 포인트" &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 "11월 제주도, 한라산 단풍 관광이 포인트" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 "11월 제주도, 한라산 단풍 관광이 포인트" 기자명 문화뉴스 이우람 입력 2016.11.07 18:00 수정 2016.11.07 22:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스] 천혜의 자연환경과 더불어 풍부한 수산물로 가득한 곳하면 가장 먼저 떠올리게 되는 여행지는 바로 '제주도'다. 실제로 연예인들과 방송 관계자들로부터도 큰 사랑을 받는 촬영지이기도 하다. 최근에는 걸그룹 다이아가 팬들과 떠나는 추억 여행지로 제주도를 선택했으며, 걸그룹 구구단도 데뷔 첫 단독 리얼리티 프로그램인 MBC뮤직의 '구구단 프로젝트'의 첫 방송 또한 제주도가 배경인 것으로 알려졌다. 또한 많은 시청자들의 사랑을 받아온 '슈퍼맨이 돌아왔다'에서 이휘재 삼부자 역시 SNS를 통해 갈 곳을 추천 받아 떠나는 자유여행지로 제주도를 찾은 것으로 보도된 바 있다. 최근 시즌 15로 돌아온 tvN '막돼먹은 영애씨' 또한 제주도를 배경으로 한 주인공의 활약상을 그렸다. 이처럼 연예인을 비롯해 수많은 관광객의 발걸음이 제주도로 향하는 이유는 무엇일까. 전문가들은 "푸른 바다와 한라산이 한 곳에 있는 제주도는 수려한 경관을 감상하고, 즐길거리가 풍부한 중문관광단지 등이 있는 것이 인기 요인으로 꼽는다"고 전했다. 이어서 "특히 한라산의 단풍이 절정에 이르러 산 전체의 80%가 물들었을 만큼 가을제주도는 아주 아름답다"면서 "11월을 맞아 제주도를 방문할 여행객이라면 반드시 한라산 관광을 하기 좋도록 근방에 위치한 숙소를 선택할 것을 권한다"고 말했다. 일례로 제주도펜션 하바다통나무집팬션의 경우, 한라산 영실코스 입구가 펜션에서 지척에 있을 뿐아니라 최고의 관광메카 중문단지가 자동차로 10분 거리인 중문펜션으로 각종 관광을 하기에 적합하다. 별도의 요금을 내지 않아도 전 객실에서 오션뷰를 감상할 수 있어 관광객에게 인기 있는 바닷가펜션으로, 탁 트인 베란다와 청록을 즐길 수 있는 잔디 정원도 마련돼 있다. 무엇보다 독채복층 펜션이기 때문에 다른 관광객의 방해 없이 오붓한 시간을 보낼 수 있으며 와이파이, 세콤, 세스코 등 편의 및 안전시설도 갖췄다. 전기압력밥솥과 전자렌지를 비롯한 식사도구 및 취사시설이 구비돼 있어 펜션 앞바다에서 직접 잡은 보말, 오징어, 벵에돔 등으로 특별 저녁 요리를 만들 수도 있다. 개별 바베큐 그릴도 제공된다. 서귀포펜션 하바다통나무집팬션 서언아 대표는 "쾌적한 환경에서 가족, 친구, 커플과 여행을 즐기고 싶다면 자연과 잘 어우러지는 친환경 재료로 지은 운치 있는 제주도펜션을 알아보는 것도 도움 될 것이다"면서 "실제로 목재 등 친환경 재료로만 제주도펜션을 지어 실내에서도 솔 향기, 피톤치드를 느낄 수 있고 나무가 온습도를 알아서 조절해 사계절 내내 보송보송한 실내에서 지낼 수 있어 고객 만족도가 높다"고 덧붙였다. 문화뉴스 이우람 기자 pd@mhns.co.kr ▲ 하바다통나무집 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 [문화리뷰] 우스꽝스러운 죽음, 비장한 삶…아이러니가 주는 명쾌한 해답[문화리뷰] '유영국, 절대와 자유 展'…자유를 통해 절대를 이룬 모더니스트[문화리뷰] 무대와 취지 모두 꽉 찬 알짜배기 공연, 전기뱀장어와 함께하는 나눔콘서트 '희망발전소'[문화리뷰] '畵畵미인도취 展', 미인은 없다[문화리뷰] 눈먼 희망대신, 또렷한 의문…"왜 이렇게 살아야되는지 생각해볼거야" 문화뉴스 이우람의 다른 기사 보기 문화뉴스 이우람 pd@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 ‘관광객 1400만명’ 돌파 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 ‘관광객 1400만명’ 돌파 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도 ‘관광객 1400만명’ 돌파 기자명 조문호 기자 입력 2016.11.15 09:01 수정 2016.11.15 09:09 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 13일 기준 1401만여명 집계1500만명까지도 가능 예측 [제주도민일보DB].제주도를 찾은 관광객이 결국 1400만명을 돌파했다. 지금 추세로는 올해 내 1500만명까지 가능하다는 시각이다.14일 제주도관광협회 집계 결과 지난 13일까지 제주를 찾은 관광객은 1401만9517명으로, 지난해 같은 기간보다 17.4%가 늘었다.이미 지난해 누적 관광객 수(1366만4395명)는 이달초 넘어선 상태다.외국인 관광객은 같은날 기준으로 324만5499명으로 집계됐다. 작년보다 40% 가량 급증한 결과다. 지난해 메르스 사태로 주춤했던 것이 회복된 것으로 해석할 수 있는 부분이다.내국인 관광객도 961만8500명에서 1077만4018명으로 12% 늘었다. 관광업계에서는 최근 하루 3만명에서 5만명이 제주를 찾고 있어 1500만명 시대도 열 수 있을 것으로 보고 있다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. esper 2016-11-15 15:04:59 더보기 삭제하기 관광객 1400만 시대 . 사회 인프라는 엉망인데...관광객은 늘어가고...쓰레기 늘어나고...교통 혼잡도 늘어나고...내 월급만 안 늘어가고 답글쓰기 9 7 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'제주도 관광' 입국해 국내 불법 체류한 중국인 징역형 선고 본문 바로가기 이전 페이지 국민일보 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 국민일보 주요뉴스를 볼 수 있습니다. 보러가기 국민일보 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 '제주도 관광' 입국해 국내 불법 체류한 중국인 징역형 선고 입력2016.11.04. 오전 9:14 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도 관광 명목으로 입국해 국내 다른 지역으로 불법 이동한 중국인들에게 법원이 징역형을 선고했다.서울중앙지법 형사12단독 박평수 판사는 제주특별자치도설치 및 국제자유도시 조성을 위한 특별법 위반 등의 혐의로 기소된 중국인 A씨(30)에게 징역 10개월에 집행유예 2년, B씨(26)에게 징역 8개월에 집행유예 2년을 선고했다고 4일 밝혔다.A씨는 2013년 11월 한 모바일 메신저에서 알게 된 중국인 브로커에게 제주도에 입국 후 국내 다른 지역으로 이동시켜 주는 대가로 4만5000위안(한화 약 900만원)을 지불하기로 했다. 다음해 4월 제주도에서 브로커를 통해 외국인등록증과 김포공항행 항공권을 받아 김포공항으로 들어왔다. 이후 국내에 머물며 2014년 5~8월까지 경기도 수원시 공공임대주택 건설현장 등에서 일용직으로 근무했다. B씨도 같은 수법으로 지난해 4월 관광 목적을 가장해 사증 없이 제주도에 입국한 후 부산항으로 들어와 수원의 건설 현장에서 일용직으로 일한 것으로 조사됐다.관광 등의 목적으로 제주도에 사증 없이 공항 또는 항만으로 입국한 외국인은 대한민국 안의 다른 지역으로 이동할 경우에는 법무부 장관으로부터 체류지역 확대 허가를 받아야 한다.박 판사는 “특별법의 제정 취지를 무시하고 출입국 질서를 해하는 범행”이라며 “죄질이 좋지 않고 불법체류 기간이 상당히 길다”고 지적했다.양민철 기자 listen@kmib.co.kr[국민일보 홈페이지] [페이스북] [트위터][국민일보 꿀잼영상 바로가기]GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지[뉴스 미란다 원칙] 취재원과 독자에게는 국민일보에 자유로이 접근할 권리와 반론·정정·추후 보도를 청구할 권리가 있습니다. 고충처리인(gochung@kmib.co.kr)/전화:02-781-9711 양민철 기자 Copyright ⓒ 국민일보. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 40년 전 최태민은 '원자경' 무당들이 설설기는 '대무당'이었다 '혼외자 의혹'에 쫓겨난 채동욱 "자기(박근혜)만 빼고 법대로였다" '최순실 의상실 몰카 고영태가 찍었다' 억대 접대부 증언도 "최순실 모른다더니…" 조윤선‧정유라 사진 '시끌' "콧대가 저리 높아짐?" 최순실 대역설 인터넷 확산… 페북지기 초이스 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 국민일보 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 국민일보 헤드라인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 이재명 더불어민주당 대표는 11일 한·미·일 동해 합동훈련에 대해 옹호하는 국민의힘을 향해 “해방 이후 친일파가 했던 행태와 다를 바가 전혀 없다”고 강하게 비판했다. 이 대표는 이날 국회에서 긴급 안보대책회의를 열 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ 세계적인 경제위기로 올해 상반기 국민연금 적자가 76조6600억원에 이른다는 지적이 나왔다. 11일 국회 보건복지위원회 국민의힘 백종헌 의원이 국민연금공단에서 제출받은 자료에 따르면, 국민연금의 올해 상반기 수익률은 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 이전 뉴스들 보기 3 다음 뉴스들 보기 국민일보가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 국민일보 헤드라인 더보기 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 44분전 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 12시간전 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 53분전 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ 2시간전 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 1시간전 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 2시간전 국민일보 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 2시간전 2 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 1시간전 3 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 4시간전 4 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 6시간전 5 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 12시간전 1 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 12시간전 2 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 4시간전 3 ‘尹퇴진’ 집회 간 野김용민… “5년 못 채우게 해야” 4시간전 4 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 6시간전 5 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] 7시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 ‘윤석열차’ 숨은 그림 찾아봐…구둣발·한동훈·여가부 다 있어 고등학생이 그린 윤석열 대통령 풍자 만화 &lt;윤석열차&gt;의 ‘깨알 디테일’이 화제다. 이 그림에 대한 정부의 대응이 ‘표현의 자유’ 논란을 불러일으키면서 파장이 정치권까지 확산하자 누리꾼들이 이 그림에 꼭꼭 숨어 있는 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 [속보] 신종마약 '야바' 유통한 불법체류 태국인 65명 무더기 검거 시가 5억원 상당의 신종 마약인 야바와 필로폰을 전국적으로 유통시킨 불법체류자 신분의 태국인 65명이 무더기 검거됐다. 강원경찰청 마약범죄수사대는 태국국적의 A(34)씨 등 14명을 구속하고 불법체류자 49명을 검거 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 “아들 전장에” 초고속 승진 푸틴 측근, 이번엔 명품 샌드백 자랑 블라디미르 푸틴 러시아 대통령 최측근으로 분류되는 람잔 카디로프 체첸 자치공화국 수장이 최근 집무실에 2억원 상당의 명품 샌드백 등을 설치해 부를 과시했다는 주장이 나왔다. 벨라루스 매체 넥스타는 최근 트위터 계정을 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” “우리를 (중국으로부터) 지켜주는 것은 미국의 무기가 아니라 이 반도체 공장들입니다.” 지난달 27일(현지 시간) 대만 타이베이에서 버스로 한 시간가량 떨어진 신주과학단지에서 만난 천수주(陳淑珠) 과학단지 부국장은 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 정진석 “조선, 일본군 때문에 망한 것 아냐… 안에서 썩어 문드러져” 여당 대표가 ‘식민사관’ 기반 주장 펼쳐 파장 정 비대위원장, 이재명 겨냥 “경박한 역사 인식” 이재명, 한미일 군사훈련에 대해 “친일 국방”이라고 공세 野 “철학적으로 문제가 있는 것” 국민의힘 정진석 비상대책위원 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 신화 신혜성, 도난차량서 음주측정 거부하다 체포 신화의 신혜성이 음주측정을 거부하다가 체포됐다. 신씨는 도난 신고가 들어온 차량을 타고 있었다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 송파구 탄천2교에서 신씨를 도로교통법상 음주측정거부, 절도 혐의로 체 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 여자친구가 생기지 않을 것이라고 증명한 수학자의 결말 미스터동 유료 얼마만에 반등이야.. 코스피 코스닥 상승 마감 22.10.4 국내증시 마감 리뷰 경제적자유로 파닭거리기 다빈치 리졸브 얼굴만 필요한 부분만 유튜브 영상에 모자이크나 블러 넣기 비디오코치 잉여금 제어, 상속세 부담 완화, 법인세 절감까지? "사내근로복지기금 활용법" 이상화세무사의 모래세무 유료 [QAT #09] 백테스팅 결과 차트 그리기 퀀티랩 유료 4.2 '소방관 진입창' 설치 의무화? 안녕하세요. 집짓기는 처음이시죠? 유료 사례 중심으로 보는 사기죄의 구체적인 양형 LAW 파트너스 유료 [골프 2분 심리] 프로골프선수에게 은퇴란?:: 최나연 선수 은퇴 기사를 보며 스포츠심리학자의 인생사례집ing 유료 [영어표현] glow up / suit yourself / piggyback ride 우야한 영어사전 유료 DX Korea 2022 - 6 쉘든의 밀리터리 유료 [2021년에 시행된 수능] (14~17) (기술) '운전자에게 차량 주위 영상을 제공하는 장치의 원리' 라온제의 수능 국어 연구소 유료 07. 그 코인이 알고 싶다 - 루나편 (못다한 이야기) 디지털 토큰 교육 연구원 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 국민일보 예 아니오</t>
+  </si>
+  <si>
+    <t>관광객 증가 제주도, 풀빌라형 타운하우스 인기 이유는? 본문 바로가기 이전 페이지 서울신문 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 서울신문 주요뉴스를 볼 수 있습니다. 보러가기 서울신문 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 생중계 랭킹 관광객 증가 제주도, 풀빌라형 타운하우스 인기 이유는? 입력2016.11.03. 오후 2:57 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [서울신문] 제주도 방문객 및 인구가 급증함에 따라 제주도 부동산 시장도 활발해지고 있다. 이와 같은 이유로 제주도 호텔 및 타운하우스를 개발중인 업체들은 홍보에 열을 올리며 분양을 실시하고 있는데, 그 중에서도 ‘로파 인 표선’이 눈길을 끌고 있다.대표적인 글로벌 관광지 제주도는 해가 지날수록 방문 관광객이 증가하고 있다. 제주도 관광협회가 발표한 통계에 따르면 올해 내국인 방문객은 지난해 같은 시기와 비교해 무려 14.8% 증가했다. 여기에 500만을 기록한 외국인 방문 수치까지 더하면 통계는 더더욱 가파른 상승 곡선을 그린다. 또한 신화역사공원, 헬스케어타운, 서귀포관광미항 개발 등 서귀포시를 중심으로 제주 6대 핵심 프로젝트가 가속화되면서 제주도로 유입되는 인구가 꾸준히 증가하여, 16년 상반기 제주도 인구수가 65만명을 넘어섰다.이처럼 제주도 방문객 및 인구가 급증함에 따라 제주도 부동산 시장도 활발해지고 있다. 이와 같은 이유로 제주도 호텔 및 타운하우스를 개발중인 업체들은 홍보에 열을 올리며 분양을 실시하고 있는데, 그 중에서도 ‘로파 인 표선’이 눈길을 끌고 있다.제주특별자치도 서귀포시 표선면 표선리 필지에 위치한 ‘로파 인 표선’은 전체 부지 21,450㎡ 중 1단지 개발로 8,848㎡에 23동 풀빌라형 타운하우스, 1,118㎡에 커뮤니티 시설을 겸비한 지하 1층 지상 4층 규모의 근린시설이 들어서며, 1단지 개발 완료 후 나머지 부지 11,484㎡ 부지 상에 2단지 및 3단지 약 30동의 타운하우스를 건설하여 총 53동의 풀빌라형 타운하우스를 건설할 예정이다.2025년에 개항하는 제주 신공항과 자동차로 불과 7분 거리에 위치하고 있는 표선면은 최근 개항 발표로 인해 땅값이 수직상승 했다. 성산읍에 제주신공항이 들어오면 인접한 표선면은 최대수혜지로 1년새 2~3배 이상의 상승율을 보일 것이라는 게 전문가의 설명이다.1차로 개발 중인 풀빌라는 전체 23동 모두 남향으로 배산임수 배치에 각 동별로 대지위치와 환경에 적합하고 차별화된 조망권 확보를 위해 해(海)바라기 방식의 구조로 건축될 예정이다. 또한 표선해비치 해변과 걸어서 불과 5분 거리에 위치해 아름다운 표선의 앞바다를 바라볼 수 있는 오션뷰 풀빌라로 최고의 조망을 선사한다.이 밖에도 제주 ‘로파 인 표선’의 내부는 조형미학과 건축공학의 조화, 즉 공간의 미학을 건축으로 공간활용도를 높였고, 동선의 단축을 이루는 스킵플로어 방식을 적용한 평면으로 구성했다. 2층 주방과 3층 거실 창문에 2면의 유리벽체인 글라스 커튼월을 적용해 실내에서도 표선의 경치를 볼 수 있으며, 제주 하늘을 담은 천장 설계로 수직적인 공간의 확장 및 차경을 실현하였다.분양 관계자는 3일 “‘로파 인 표선’은 제주 내 희소성의 가치를 극대화한 3층 단독형 타운하우스에 스킵 플로어 건축방식으로 공간의 활용성과 개성을 모두 잡았다”며 “일년 내내 국내외 관광객들로 붐비는 제주도 풀빌라의 메카로 자리매김하여, 거주와 휴식의 새로운 기준이 되고 싶다”고 전했다.11월 본격 분양을 시작한 제주도 타운하우스 ‘로파 인 표선’의 자세한 분양 정보는 공식 홈페이지와 전화 문의를 통해 확인할 수 있다.온라인뉴스부 iseoul@seoul.co.kr▶ [웰 메이드 N], 재미있는 세상[나우뉴스] ▶ [인기 무료만화] [페이스북]ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지 Copyright ⓒ 서울신문. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 경제 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 박근령 "최태민·박근혜 관계, 진짜 시작은…" 충격 최태민 아들 "최순실 재산 3000억은 빙산의 일각" "나를 무시해?" 격분한 고영태, '의상실 몰카' 제보 조윤선 "최순실 본 적 없다"더니…정유라와 찍은 사진 공개 "최순실, 입국직후 은행 돌며 거액 인출" 진실은 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울신문 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울신문 헤드라인 尹, 한일 군사협력 논란에 “北 핵위협 앞에 어떤 우려가 정당화되나” 윤석열 대통령이 11일 한일 군사협력 강화에 대한 일각의 우려에 “핵위협 앞에서 어떤 우려가 정당화될 수 있겠나. 저는 그렇게 생각한다”고 밝혔다. 윤 대통령은 이날 용산 대통령실 출근길 문답에서 ‘한일관계 개선 필 나경원 “난 반윤 아냐…유승민, 尹 비판 과해” 나경원 전 국민의힘 의원이 전당대회 출마 가능성을 시사하며 자신을 가리켜 “반윤(반윤석열)은 아니다”라고 강조했다. 나 전 의원은 11일 KBS 라디오 프로그램 ‘최경영의 최강시사’와의 인터뷰를 통해 “특별히 포지션 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 그룹 신화 신혜성(43·본명 정필교) 측이 음주측정 거부 혐의로 현행범으로 체포된 사실을 인정하고 공식 사과했다. 11일 신혜성 소속사 라이브웍스컴퍼니는 “신혜성은 10월 10일 오후 11시쯤 한 음식점에서 지인들과 한강공원서 ‘독사’에 물린 반려견…뱀 마주쳤다면 ‘이렇게’ 행동하세요 시민들이 즐겨 찾는 서울 한강공원에서 독사가 나타나 산책하는 시민의 반려견을 무는 사고가 발생했다. 지난달 27일 네티즌 A씨는 자신의 인스타그램에 ‘마포구 주민과 한강시민공원을 산책하시는 보호자님들께 알린다’는 내 “담요 덮고 낮잠”…태국 총기난사서 유일 생존한 3세 여아 영유아 24명 등 총 38명이 숨진 태국 어린이집 총기난사 참사에서 3세 여자아이가 유일하게 살아남은 사실이 알려졌다. 그는 사건 당시 담요를 덮고 자고 있었다. 9일(현지시간) 로이터통신과 BBC 등에 따르면 3살 이전 뉴스들 보기 3 다음 뉴스들 보기 서울신문이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울신문 헤드라인 더보기 尹, 한일 군사협력 논란에 “北 핵위협 앞에 어떤 우려가 정당화되나” 2시간전 나경원 “난 반윤 아냐…유승민, 尹 비판 과해” 1시간전 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 1시간전 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 2시간전 한강공원서 ‘독사’에 물린 반려견…뱀 마주쳤다면 ‘이렇게’ 행동하세요 16분전 “담요 덮고 낮잠”…태국 총기난사서 유일 생존한 3세 여아 14분전 서울신문 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 19시간전 2 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 2시간전 3 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 1시간전 4 김의겸, 한동훈 美출장 지적하자…진중권 “자폭성 폭로…왜?” 2시간전 5 “칼춤 춰봐?”…공개 장소서 부하직원 엉덩이 때린 간부 1시간전 1 문재인 전 대통령, ‘문프셀러’ 현상에 “출판계 도움돼 기쁘다” 4시간전 2 김의겸, 한동훈 美출장 지적하자…진중권 “자폭성 폭로…왜?” 2시간전 3 [속보] 尹대통령 “北, 핵으로 얻을 수 있는 건 없다…한미일 안보협력 대응” 2시간전 4 “한반도에 욱일기” 이재명 발언에 정진석 “국민 현혹 망언” 2시간전 5 “한동훈, 이재명 수사 방미” vs “김의겸, 내부고발 하나” 7시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 ‘윤석열차’ 숨은 그림 찾아봐…구둣발·한동훈·여가부 다 있어 고등학생이 그린 윤석열 대통령 풍자 만화 &lt;윤석열차&gt;의 ‘깨알 디테일’이 화제다. 이 그림에 대한 정부의 대응이 ‘표현의 자유’ 논란을 불러일으키면서 파장이 정치권까지 확산하자 누리꾼들이 이 그림에 꼭꼭 숨어 있는 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 치매, ○○ 무뎌지거나 코골이 심해지면 의심 치매 걱정된다면…가족과 가깝게, 친구는 많이 음주 후 전날 일 기억 안난다면 ‘경고등’ 흡연·비만·사회고립 등 위험인자 피해야 당신의 정신건강, 안녕하십니까 아침에 유난히 일어나기 힘들고, 작은 일에도 쉽게 화가 난 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 최재해 감사원장이 ‘감사원은 대통령 국정운영을 지원하는 기관’이라는 국회 발언 등에 대한 설명을 요구하는 감사원 직원들의 면담 요구를 거부한 것으로 확인됐다. 이런 사실은 감사원 직원이 감사원 운영방식을 비판하는 취 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 “아들 전장에” 초고속 승진 푸틴 측근, 이번엔 명품 샌드백 자랑 블라디미르 푸틴 러시아 대통령 최측근으로 분류되는 람잔 카디로프 체첸 자치공화국 수장이 최근 집무실에 2억원 상당의 명품 샌드백 등을 설치해 부를 과시했다는 주장이 나왔다. 벨라루스 매체 넥스타는 최근 트위터 계정을 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” “우리를 (중국으로부터) 지켜주는 것은 미국의 무기가 아니라 이 반도체 공장들입니다.” 지난달 27일(현지 시간) 대만 타이베이에서 버스로 한 시간가량 떨어진 신주과학단지에서 만난 천수주(陳淑珠) 과학단지 부국장은 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 [뉴욕시그널] 모건스탠리: 일의 미래를 주도할 핵심기업 더밀크 유료 교육 뉴스 브리핑 - 2022.10.07 학종 전공별 탐구 주제 유료 🐰💌 누가 진정한 빌런인가? 레빗구미의영화이야기 유료 노르웨이에서 또 다시 발생한 총기난사 사건 텀크루즈 돈되는 경제뉴스 해설 - 투자는 네이버로 투기는 카카오로 내 자산에 도움이 되는 경제뉴스 해설 유료 북한 미사일발사에 일본 충격 corescience 유료 처음으로 맞은 겨울 젊어서 실패는 실패가 아니다! [10월 한정, 수강권 50% 할인 이벤트] 1인기업가를 위한 사명 브랜딩 만드는 법 책먹는여자 동영상 기사 유료 직원 모니터링의 역효과 HBR 에센셜 영국 도박사들이 본 이강인의 가치는? SpoQ: 데이터로 보는 스포츠 학생부종합 탐구생활 _ 약학과 입시 뉴스 읽어주는 컨설턴트 유료 10/5 오늘의 주요 증시 일정 리치언니 투자노트 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울신문 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도 임대수익차 전국 최고... 중문 등 관광지 수익형 부동산 관심↑ 본문 바로가기 이전 페이지 서울신문 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 서울신문 주요뉴스를 볼 수 있습니다. 보러가기 서울신문 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 생중계 랭킹 제주도 임대수익차 전국 최고... 중문 등 관광지 수익형 부동산 관심↑ 입력2016.11.04. 오전 11:16 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [서울신문] 제주도 중에서도 가장 높은 인구 유입률과 개발가능성을 갖추고 있는 서귀포시 일대가 분양 호황기를 맞고 있는 가운데, 서귀포시 중문에 수익형 스마트룸 ‘중문 오션 클라우드’가 들어설 계획이다.제주도는 매년 인구가 크게 늘면서 수요가 큰 폭으로 증가하고 있다. 그러나 이에 비해 주택의 공급이 부족하다 보니 임대수익률이 전국 최고치를 기록하고 있다. 통계청 자료에 따르면 2015년 제주도로 유입된 순 이동인구는 1만4,257명으로, 이는 경기도(9만4,768명)와 세종시(5만3,044명)를 제외하고 가장 높은 수치다.이처럼 제주도 인구수는 해마다 증가하고 있는 상태로 이러한 인구증가는 제주도 부동산 시장의 호황으로 이어졌다. 실제로 부동산114에 따르면 지난해 제주도 아파트 평균 매매가격과 평균전세가격은 각각 8.75%, 9.47%가 올랐으며, 땅값도 평균 7.5%가 올랐다.제주도 중에서도 가장 높은 인구 유입률과 개발가능성을 갖추고 있는 서귀포시 일대가 분양 호황기를 맞고 있는 가운데, 서귀포시 중문에 수익형 스마트룸 ‘중문 오션 클라우드’가 들어설 계획이다.오션 클라우드는 총 366실 규모로, 중문 앞바다를 해발 83m의 높이에서 바라볼 수 있는 압도적 오션뷰 조망권을 자랑한다.뿐만 아니라 제주 8대 주요 계획이 서귀포에 집중돼 있다는 점, 바로 앞에 국내 최대 규모의 부영 호텔&amp;복합리조트가 조성될 계획이라는 점 등 탁월한 입지 조건을 갖췄다. 이 부영복합리조트 건설 계획지에는 부영리조트 및 호텔 4동이 들어설 예정으로, 면세점, 워터파크, 승마장, 카지노 등도 건설될 예정이다.중문 오션 클라우드는 ‘스마트룸’이라는 수식어에 걸맞는 혁신적이고 스마트한 구성을 선보인다. 호텔형 풀 퍼시니드 브랜드 빌트인, 24시간 첨단 보안, 인버터 냉난방 시스템 등은 입주자들의 스마트한 삶을 완성시켜 줄 요소들이다. 또한 디지털 도어락과 무인택배함, 보안감지시스템, CCTV 등으로 생활의 안전성을 높였고, FMS 중앙냉난방 시스템과 무소음 냉난방, 공기청정 시스템으로 쾌적한 환경을 제공해 줄 예정이다.분양 관계자는 4일 “설계 단계부터 입주민의 생활환경과 건강, 효율성까지 고려하여 삶의 질이 높아지는 것은 물론 해당 시설 내에서 피트니스센터, 편의점, 카페, 골프연습장 등의 부대시설을 편리하게 누릴 수 있을 것”이라며 “제주도는 향후 3년 간 지속적으로 관광면에서 성장할 것으로 보이기 때문에, 중문 오션 클라우드는 투자처로서도 적합하다”고 전했다.오션 클라우드는 제주특별자치도 서귀포시 중문동 필지에 조성될 예정이며, 분양 홍보관은 서울과 제주 2곳에 마련되어 있다. 서울홍보관은 강남구 삼성동, 제주홍보관은 제주시 노형동에 위치해 있다.온라인뉴스부 iseoul@seoul.co.kr▶ [웰 메이드 N], 재미있는 세상[나우뉴스] ▶ [인기 무료만화] [페이스북]ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지 Copyright ⓒ 서울신문. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 경제 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. "고영태, 정권초부터 말 안 들으면 날려버린다며…" 김진명 "朴대통령 세월호 7시간 뭘했는지" 의미심장 박근령 "최태민·박근혜 관계, 진짜 시작은…" 충격 "정유라, 朴대통령 딸 루머에 DNA검사 까지 받았다" "나를 무시해?" 격분한 고영태, '의상실 몰카' 제보 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울신문 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울신문 헤드라인 尹, 한일 군사협력 논란에 “北 핵위협 앞에 어떤 우려가 정당화되나” 윤석열 대통령이 11일 한일 군사협력 강화에 대한 일각의 우려에 “핵위협 앞에서 어떤 우려가 정당화될 수 있겠나. 저는 그렇게 생각한다”고 밝혔다. 윤 대통령은 이날 용산 대통령실 출근길 문답에서 ‘한일관계 개선 필 나경원 “난 반윤 아냐…유승민, 尹 비판 과해” 나경원 전 국민의힘 의원이 전당대회 출마 가능성을 시사하며 자신을 가리켜 “반윤(반윤석열)은 아니다”라고 강조했다. 나 전 의원은 11일 KBS 라디오 프로그램 ‘최경영의 최강시사’와의 인터뷰를 통해 “특별히 포지션 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 그룹 신화 신혜성(43·본명 정필교) 측이 음주측정 거부 혐의로 현행범으로 체포된 사실을 인정하고 공식 사과했다. 11일 신혜성 소속사 라이브웍스컴퍼니는 “신혜성은 10월 10일 오후 11시쯤 한 음식점에서 지인들과 한강공원서 ‘독사’에 물린 반려견…뱀 마주쳤다면 ‘이렇게’ 행동하세요 시민들이 즐겨 찾는 서울 한강공원에서 독사가 나타나 산책하는 시민의 반려견을 무는 사고가 발생했다. 지난달 27일 네티즌 A씨는 자신의 인스타그램에 ‘마포구 주민과 한강시민공원을 산책하시는 보호자님들께 알린다’는 내 “담요 덮고 낮잠”…태국 총기난사서 유일 생존한 3세 여아 영유아 24명 등 총 38명이 숨진 태국 어린이집 총기난사 참사에서 3세 여자아이가 유일하게 살아남은 사실이 알려졌다. 그는 사건 당시 담요를 덮고 자고 있었다. 9일(현지시간) 로이터통신과 BBC 등에 따르면 3살 이전 뉴스들 보기 3 다음 뉴스들 보기 서울신문이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울신문 헤드라인 더보기 尹, 한일 군사협력 논란에 “北 핵위협 앞에 어떤 우려가 정당화되나” 2시간전 나경원 “난 반윤 아냐…유승민, 尹 비판 과해” 1시간전 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 1시간전 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 2시간전 한강공원서 ‘독사’에 물린 반려견…뱀 마주쳤다면 ‘이렇게’ 행동하세요 16분전 “담요 덮고 낮잠”…태국 총기난사서 유일 생존한 3세 여아 14분전 서울신문 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 19시간전 2 신혜성 측 “음주운전 인정, 도난 차량 탑승한 이유는…” [전문] 2시간전 3 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 1시간전 4 김의겸, 한동훈 美출장 지적하자…진중권 “자폭성 폭로…왜?” 2시간전 5 “칼춤 춰봐?”…공개 장소서 부하직원 엉덩이 때린 간부 1시간전 1 문재인 전 대통령, ‘문프셀러’ 현상에 “출판계 도움돼 기쁘다” 4시간전 2 김의겸, 한동훈 美출장 지적하자…진중권 “자폭성 폭로…왜?” 2시간전 3 [속보] 尹대통령 “北, 핵으로 얻을 수 있는 건 없다…한미일 안보협력 대응” 2시간전 4 “한반도에 욱일기” 이재명 발언에 정진석 “국민 현혹 망언” 2시간전 5 “한동훈, 이재명 수사 방미” vs “김의겸, 내부고발 하나” 7시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 [속보] 신종마약 '야바' 유통한 불법체류 태국인 65명 무더기 검거 시가 5억원 상당의 신종 마약인 야바와 필로폰을 전국적으로 유통시킨 불법체류자 신분의 태국인 65명이 무더기 검거됐다. 강원경찰청 마약범죄수사대는 태국국적의 A(34)씨 등 14명을 구속하고 불법체류자 49명을 검거 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 치매, ○○ 무뎌지거나 코골이 심해지면 의심 치매 걱정된다면…가족과 가깝게, 친구는 많이 음주 후 전날 일 기억 안난다면 ‘경고등’ 흡연·비만·사회고립 등 위험인자 피해야 당신의 정신건강, 안녕하십니까 아침에 유난히 일어나기 힘들고, 작은 일에도 쉽게 화가 난 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” “우리를 (중국으로부터) 지켜주는 것은 미국의 무기가 아니라 이 반도체 공장들입니다.” 지난달 27일(현지 시간) 대만 타이베이에서 버스로 한 시간가량 떨어진 신주과학단지에서 만난 천수주(陳淑珠) 과학단지 부국장은 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 최재해 감사원장이 ‘감사원은 대통령 국정운영을 지원하는 기관’이라는 국회 발언 등에 대한 설명을 요구하는 감사원 직원들의 면담 요구를 거부한 것으로 확인됐다. 이런 사실은 감사원 직원이 감사원 운영방식을 비판하는 취 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 국회, 대체 어떤 존재일까? 어른들의 사회생활 유료 대구 달서구 아파트 리스트 - 대구 실거주 수요의 집결지! 최고의 수요 입지!! 스마트튜브 부동산조사연구소 유료 2022년 10/9일 시황 자유투자자의 주식투자 성공 자습서 유료 [인사이트 나우] 새벽 4시 미국은 지금? "신규 일자리, 렌트- 또 다른 신호, Nickel and Diming " 유목민의 시그널리포트 유료 #1. 수도권 제1기 신도시 긴급 진단 : 신도시 재정비 어떻게 되나? 도시부자김사부 유료 시간 없다면 ‘업종·섹터 ETF’로 고수익 노리자 I 재콩의 현명한 지표 투자 넘버스 유료 동아시아 '휘두루는' 두루미 펭귄밀크 맞춤법 공부, 어떻게? 쉐어하우스 유료 이준석 전 대표의 3, 4, 5차 가처분 신청을 각하, 기각한 결정은 타당할까? LAW 파트너스 유료 퀀트 투자 회사 재직자는 시장을 어떻게 보고 있을까? 너겟 유료 NHN클라우드, 계열 축소 와중에 인재INC 인수...사업확장 신호탄? thebellstock 그럼 롯데케미칼은 언제 사냐고요? 현명한 지표 투자 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울신문 예 아니오</t>
+  </si>
+  <si>
+    <t>에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! &lt; 비즈 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 12:20 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 9 제9회 한국와인대상 품평회 성료, “한국와인, 이제는 세계로 나아갈 때” 10 프리미엄 캔와인 '웨스트와일더', 안정환 &amp; 이혜원 부부와 콜라보한 스페셜 에디션 선보여 더보기 본문영역 이전 기사보기 다음 기사보기 에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 이지선 기자 입력 2016.11.07 15:32 수정 2016.11.07 15:40 에코랜드, 제주도 인기 관광지로 떠올라… 여행객 향토음식 맛집 선호! 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 제주도의 연간 방문객이 1300만명을 넘어서고 있다. 제주도는 명실공히 국내를 대표하는 여행지로 2007년 제주 화산섬과 용암 동굴이 유네스코 세계유산에 등재되면서 세계적 관광지로도 인정받고 있다. 지난해 제주도를 방문한 외국인 관광객만 262만 명에 달한다.문화체육관광부가 10월 24일부터 11월 6일까지를 ‘2016 가을 여행주간’으로 선정, 관광지 입장료 할인, 미개방 관광지 한시적 개방, 기타 다채로운 여행 프로그램을 마련하고 있어 해당 기간에 제주를 찾는 여행객이 크게 늘어날 전망이다.최근 제주도에 자리하는 여러 여행지 중에서도 에코랜드의 인기가 뜨겁다. 이곳은30만 평의 곶자왈 부지에 기찻길을 놓고 호수를 만들어 자연생태체험과 산책, 피크닉 등을 즐길 수 있도록 하고 있다. 에코브릿지, 에코풍차, 피크닉가든, 키즈타운, 에코로드, 송이맨날체험, 수상카페, 토핑어리 등 보고 즐길거리가 많다. ▲ 옥돔, 갈치, 고등어 및 흑돼지불고기 등 제주도를 대표하는 향토음식 &lt;사진=생이소리&gt;에코랜드와 멀지 않은 곳에 자리한 사려니숲길 또한 제주를 대표하는 관광지 중 하나. 사려니숲길은 비자림로의 봉개동 구간에서 제주시 조천읍 교래리의 물찻오름을 지나 서귀포시 남원읍 한남리의 사려니오름까지 이어지는 길로 울창한 자연림이 넓게 펼쳐져 있어 산책로로 제격이다. 특히 이곳은 2009년 7월 제주시가 발표한 ‘제주시 숨은 비경 31’ 중 하나다.여행에서 빠질 수 없는 것이 바로 지역의 먹거리를 맛보는 것인 만큼 에코랜드와 사려니숲길 일대를 찾는 여행객들의 발길은 제주향토음식전문점 ‘생이소리’로 향하고 있다.해당 식당은 옥돔, 갈치, 고등어 및 흑돼지불고기 등 제주도를 대표하는 여러 향토음식을 선보이고 있는 곳으로 정갈하고 정성이 듬뿍 담긴 밑반찬과 푸짐한 상차림 덕에 여행객과 일대 주민들로부터 에코랜드 맛집으로 불리고 있다.청결하고 깔끔한 인테리어를 갖추고 있으며, 넓은 실내공간 덕에 단체 손님 또한 편안한 식사가 가능하며, 음식점과 숙소를 함께 운영하고 있어 안락한 잠자리를 원하는 여행객들로부터도 큰 주목을 받고 있다.‘생이소리’ 관계자는 “식당을 찾은 손님들이 에코랜드 맛집으로 인정해줄 때 마다 큰 자부심과 기쁨을 느낀다”며, “앞으로도 내 가족이 먹는 음식이라는 생각 아래 신선한 맛과 친절한 서비스로 보답하겠다”고 전했다.사려니숲길 맛집으로도 불리는 이곳 식당은 부스터와 하이체어가 준비되어 있어 어린 아이와 함께 가기에도 좋다는 평이다.소믈리에타임즈 이지선기자 jslee@sommeliertiems.com 이지선 기자 jslee@sommeliertimes.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 맛있는 녀석들, 군대특집으로 먹방 최초, 군부대 P.X 먹방 공개!...뽀글이와 빅 소시지, 각종 냉동식품, 건빵을 활용한 다양한 레시피 VJ특공대, 떡으로 예술 하는 남자, 떡 인형 공예가 오권석씨의 떡을 향한 열정, 백종원부터 스파이더맨까지 와인을 온천으로 즐긴다, 레드와인과 샴페인을 온몸으로! 백종원의 3대천왕, 돌냄비 우동과 즉석 얼큰 우동 vs 치즈돈가스, 매운돈가스와 경양식 돈가스 [김세한의 서양요리] &lt;2&gt; 애피타이저(Appetizer), 아보카도 퓨레를 곁들인 게살 팀발(Crab Timbale with Avocado Puree 김장배추가격 큰 폭 오름 없다!, 정보제공, 공급안정, 비용절감 등 대책 마련 최신뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 현업에서 활동중인 소믈리에들 모습 포토뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 인기뉴스 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 오늘의 추천 [오늘의 추천] 션 태커리 오리온 1997 "와인메이커로서 나의 유일한 목적은 즐거움을 만드는 것" [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" 오스트리아 와인 업계, 2022 빈티지 “수확량은 적지만 훌륭한 품질의 포도 예상” 2022 월드 베스트 바, '바르셀로나 파라디소(Paradiso)' 1위 차지 행사/EVENT 시음회 이탈리안 이노베이션 Italian Innovation 10월 27일 PM 7시 ~ 9시, 에프터 나인 앤 와인 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [금주의 주류 신상] 10월 첫째주 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 론칭 및 프로모션 기사 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 호주 와인 윈즈(Wynns), 페어링을 위한 미디움 바디 와인 4종 국내 론칭 [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 230년 역사의 프랑스 샴페인 명가, '슈를랭(Champagne Cheurlin)' 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>JCC, “오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것” - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 JCC, “오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 JCC, “오라관광단지 환경영향평가서 보완 요구 제주도와 협의할 것” 김동일 기자 승인 2016.11.06 18:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × JCC㈜, 6일 ‘제주 오라관광단지 사업 제2차 주민간담회 개최오수 100% 자체 처리 밝혀…“나머지는 제주도와 협의할 것” JCC㈜가 6일 오라관광단지 조성 사업 현장사무실에서 오라·오등동 주민 등 80여 명이 참석한 가운데 ‘제주 오라관광단지 사업 제2차 주민간담회’를 진행하고 있다. 김동일 기자 flash@jejuilbo.net [제주일보=김동일 기자] 제주특별자치도가 제주 오라관광단지 개발 사업에 대한 환경영향평가서와 관련해 사업자에 보완을 요구한 가운데 JCC㈜는 6일 “내부 검토를 거쳐 제주도와 협의하겠다”고 밝혔다.JCC㈜는 이날 오라관광단지 조성 사업 현장사무실에서 오라·오등동 주민 등 80여 명이 참석한 가운데 ‘제주 오라관광단지 사업 제2차 주민간담회’를 열고 사업진행 상황과 주요 현황 등을 설명하는 시간을 가졌다.JCC㈜는 이날 발표 자료를 통해 지난 4일 제주도가 요구한 ▲지하수 사용량 최소화 및 상·중수도 사용계획 ▲하수 및 폐기물의 전량 자체 처리 ▲사업부지 내 휴양콘도시설 적정수요량 재산정 및 조정 등의 보완의견에 대한 계획을 내놨다.JCC㈜는 단계별 개발계획에 따라 1~2단계에서는 오수를 100% 자체 처리하고 3단계 개발 이후 도두하수처리장으로 이송하는 당초 오수처리계획에서 100% 자체적으로 처리하겠다는 입장을 밝혔다. 사실상 제주도의 보완 요구 사항을 수용한 셈이다.지하수 사용 최소화와 관련해서는 생활용수와 관개용수는 100% 중수와 우수로 사용하고 지하수는 허가량 5350㎥ 가운데 4740㎥로 사용량을 저감하겠다는 계획이 포함됐다. 이는 JCC㈜가 지난달 제주도에 제출한 사업계획 변경(안)에서 제시된 4750㎥보다 10㎥ 줄어든 것으로, 기존 계획에서 크게 벗어나지 않았다.JCC㈜ 특히 지하수 사용량 최소화와 휴양콘도미니엄 수요량 재산정 및 조정에 대한 제주도의 구체적인 가이드라인 및 범위가 제시되지 않은 만큼 내부 논의를 거쳐 제주도와 협의하겠다는 입장을 내비쳤다.박영조 JCC㈜ 대표이사는 주민들에게 “법과 제도 내에서 사업을 추진할 것”이라며 “특히 관광객들이 오랫동안 머물 수 있는 관광단지를 만들어 제주관광의 질적 향상을 이룰 것”이라고 밝혔다.JCC㈜ 관계자는 “지난 4일 제주도로부터 보완 요구에 대한 문서를 받았으며, 현재 내부적으로 논의가 이뤄지지 않은 상황”이라며 “내부 검토를 거친 뒤 제주도와 협의에 나설 것”이라고 말했다.이에 대해 이영웅 제주환경운동연합 사무처장은 “제주도의 보완 요구는 현재 논란이 되고 있는 부분을 상쇄하기에는 미흡하다”면서 “특히 휴양콘도시설 적정수요량 재산정 및 조정은 열안지 오름 주변과 신규부지 숙박시설 제척 등의 구체적인 제시 내용이 없어 적당한 선에서 규모를 줄이는 방향으로 사업안이 제출될 수 있다고 본다”고 말했다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 도내 관광사업체 대상 컨설팅 지원 실시 이승현 기자 승인 2016.11.01 16:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=이승현 기자] 제주특별자치도와 관광협회(회장 김영진)는 지난 9~10월에 걸쳐 도내 관광사업체를 대상으로 하는 제2차 관광사업자 컨설팅 지원을 진행했다고 1일 밝혔다.이번 사업은 사업체 운영에 있어 다양한 현안사항을 안고 있는 도내 영세 관광사업체 중심으로 맞춤형 컨설팅 지원을 통해 사업체의 대외 경쟁력을 강화하기 위해 추진됐다.공개모집을 통해 선정된 관광사업체 10개사를 대상으로 전문가들이 해당업체를 직접 찾아 경영 컨설팅 지원과 세무‧회계 부문, 법무‧법률 부문의 자문 및 상담을 진행했다.컨설팅 후 만족도 조사 설문 결과에서도 본 컨설팅 사업에 대해서는 전반적으로 참가자가 만족한다고 응답했다.세부적으로는 경영컨설팅과 세무·회계 분야에서는 응답자의 87.5%, 법무·법률 분야에서는 응답자 전원이 만족한다는 의견이 제시됐다.도관광협회 관계자는 “컨설팅에 참여한 관광사업체들의 만족도가 높고 영세 사업체의 대외 경쟁력을 확보하기 위해 내년에도 컨설팅 지원 사업을 이어 나갈 예정”이라고 말했다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -431,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,6 +589,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -505,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -515,6 +611,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -524,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +645,169 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
